--- a/src/Input_Files/characters/hre_characters.xlsx
+++ b/src/Input_Files/characters/hre_characters.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gebruiker\Desktop\CK\CKU_bestanden\Mapping\HRE_master_maps\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python Scripts\imperator\ProvinceOrganizer\EP_ImperatorProvinceOrganizer\src\Input_Files\characters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C389E9D-B9C1-4C71-8E96-421744F8BBF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C05C91-E469-4F60-9EB8-6A44FF3E0BC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="16080" windowWidth="29040" windowHeight="15840" xr2:uid="{E5B2FA9E-FCEB-4F64-AA77-9CDFE63EBBF9}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{E5B2FA9E-FCEB-4F64-AA77-9CDFE63EBBF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1182,9 +1182,6 @@
     <t>d_gelre</t>
   </si>
   <si>
-    <t>d_liege Title</t>
-  </si>
-  <si>
     <t>d_liege</t>
   </si>
   <si>
@@ -1645,13 +1642,16 @@
   </si>
   <si>
     <t>(128, 239, 70)</t>
+  </si>
+  <si>
+    <t>Liege Title</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1664,6 +1664,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1686,24 +1692,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1768,7 +1765,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2066,210 +2063,210 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{400C5842-DB98-492E-993D-80D39F62EB82}">
   <dimension ref="A1:BD234"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
-      <selection activeCell="B234" sqref="B234"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.453125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22.26953125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.1796875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="9" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="5.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H1" t="s">
-        <v>382</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="H1" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AD1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AE1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AF1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AG1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AH1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AI1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AK1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AL1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AM1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AN1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AO1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AP1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AR1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AS1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AT1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AU1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AV1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AW1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AX1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AY1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="AZ1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BA1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BB1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BC1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BD1" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>56</v>
       </c>
@@ -2283,7 +2280,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="3" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>58</v>
       </c>
@@ -2301,7 +2298,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="4" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>60</v>
       </c>
@@ -2317,7 +2314,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>63</v>
       </c>
@@ -2332,7 +2329,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="6" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>64</v>
       </c>
@@ -2350,7 +2347,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="7" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>66</v>
       </c>
@@ -2368,7 +2365,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="8" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>68</v>
       </c>
@@ -2386,7 +2383,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="9" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>70</v>
       </c>
@@ -2404,7 +2401,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="10" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>72</v>
       </c>
@@ -2422,7 +2419,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="11" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>74</v>
       </c>
@@ -2440,7 +2437,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="12" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>76</v>
       </c>
@@ -2458,7 +2455,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="13" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>78</v>
       </c>
@@ -2476,7 +2473,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="14" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>80</v>
       </c>
@@ -2494,7 +2491,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="15" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>82</v>
       </c>
@@ -2512,7 +2509,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="16" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>84</v>
       </c>
@@ -2530,7 +2527,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>86</v>
       </c>
@@ -2548,7 +2545,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>88</v>
       </c>
@@ -2566,7 +2563,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>90</v>
       </c>
@@ -2584,7 +2581,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>92</v>
       </c>
@@ -2602,7 +2599,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>94</v>
       </c>
@@ -2620,7 +2617,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>96</v>
       </c>
@@ -2638,7 +2635,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>98</v>
       </c>
@@ -2656,7 +2653,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>100</v>
       </c>
@@ -2674,7 +2671,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>102</v>
       </c>
@@ -2692,7 +2689,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>105</v>
       </c>
@@ -2710,7 +2707,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>106</v>
       </c>
@@ -2728,7 +2725,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>108</v>
       </c>
@@ -2746,7 +2743,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>110</v>
       </c>
@@ -2764,7 +2761,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>113</v>
       </c>
@@ -2782,7 +2779,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>117</v>
       </c>
@@ -2800,7 +2797,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>115</v>
       </c>
@@ -2818,7 +2815,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>118</v>
       </c>
@@ -2836,7 +2833,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>120</v>
       </c>
@@ -2854,7 +2851,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>122</v>
       </c>
@@ -2872,7 +2869,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>124</v>
       </c>
@@ -2890,7 +2887,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>126</v>
       </c>
@@ -2908,7 +2905,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>128</v>
       </c>
@@ -2926,7 +2923,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>130</v>
       </c>
@@ -2944,7 +2941,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>132</v>
       </c>
@@ -2962,7 +2959,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>134</v>
       </c>
@@ -2980,7 +2977,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>136</v>
       </c>
@@ -2998,7 +2995,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>138</v>
       </c>
@@ -3016,7 +3013,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>140</v>
       </c>
@@ -3034,7 +3031,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>142</v>
       </c>
@@ -3052,7 +3049,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>144</v>
       </c>
@@ -3070,7 +3067,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>146</v>
       </c>
@@ -3088,7 +3085,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>148</v>
       </c>
@@ -3106,7 +3103,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>150</v>
       </c>
@@ -3124,7 +3121,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>152</v>
       </c>
@@ -3142,7 +3139,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>154</v>
       </c>
@@ -3160,7 +3157,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>10003557</v>
       </c>
@@ -3178,7 +3175,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>157</v>
       </c>
@@ -3197,7 +3194,7 @@
       </c>
       <c r="J53" s="1"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>159</v>
       </c>
@@ -3212,10 +3209,10 @@
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>161</v>
       </c>
@@ -3230,10 +3227,10 @@
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>163</v>
       </c>
@@ -3251,7 +3248,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>165</v>
       </c>
@@ -3270,7 +3267,7 @@
       </c>
       <c r="L57" s="1"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>167</v>
       </c>
@@ -3285,10 +3282,10 @@
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>169</v>
       </c>
@@ -3307,7 +3304,7 @@
       </c>
       <c r="M59" s="1"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>171</v>
       </c>
@@ -3325,7 +3322,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>173</v>
       </c>
@@ -3343,7 +3340,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>175</v>
       </c>
@@ -3362,7 +3359,7 @@
       </c>
       <c r="M62" s="1"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>176</v>
       </c>
@@ -3381,7 +3378,7 @@
       </c>
       <c r="J63" s="1"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>179</v>
       </c>
@@ -3396,11 +3393,11 @@
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="M64" s="1"/>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>181</v>
       </c>
@@ -3418,7 +3415,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>183</v>
       </c>
@@ -3433,11 +3430,11 @@
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="L66" s="1"/>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>185</v>
       </c>
@@ -3452,11 +3449,11 @@
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="M67" s="1"/>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>188</v>
       </c>
@@ -3475,7 +3472,7 @@
       </c>
       <c r="L68" s="1"/>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>187</v>
       </c>
@@ -3493,7 +3490,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>191</v>
       </c>
@@ -3512,7 +3509,7 @@
       </c>
       <c r="L70" s="1"/>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>193</v>
       </c>
@@ -3530,7 +3527,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>195</v>
       </c>
@@ -3545,11 +3542,11 @@
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="L72" s="1"/>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>197</v>
       </c>
@@ -3567,7 +3564,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>199</v>
       </c>
@@ -3582,10 +3579,10 @@
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.35">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>201</v>
       </c>
@@ -3600,12 +3597,12 @@
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
       <c r="H75" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J75" s="1"/>
       <c r="N75" s="1"/>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>203</v>
       </c>
@@ -3623,7 +3620,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>205</v>
       </c>
@@ -3642,7 +3639,7 @@
       </c>
       <c r="L77" s="1"/>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>207</v>
       </c>
@@ -3660,7 +3657,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>209</v>
       </c>
@@ -3678,7 +3675,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>211</v>
       </c>
@@ -3696,7 +3693,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>213</v>
       </c>
@@ -3714,7 +3711,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>215</v>
       </c>
@@ -3733,7 +3730,7 @@
       </c>
       <c r="M82" s="1"/>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>217</v>
       </c>
@@ -3748,10 +3745,10 @@
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
       <c r="H83" s="1" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>219</v>
       </c>
@@ -3770,7 +3767,7 @@
       </c>
       <c r="L84" s="1"/>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>221</v>
       </c>
@@ -3789,7 +3786,7 @@
       </c>
       <c r="L85" s="1"/>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>223</v>
       </c>
@@ -3807,7 +3804,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>225</v>
       </c>
@@ -3826,7 +3823,7 @@
       </c>
       <c r="L87" s="1"/>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>227</v>
       </c>
@@ -3844,7 +3841,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>229</v>
       </c>
@@ -3862,7 +3859,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>231</v>
       </c>
@@ -3880,7 +3877,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>234</v>
       </c>
@@ -3900,7 +3897,7 @@
       <c r="J91" s="1"/>
       <c r="L91" s="1"/>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>235</v>
       </c>
@@ -3918,7 +3915,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>237</v>
       </c>
@@ -3937,7 +3934,7 @@
       </c>
       <c r="K93" s="1"/>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>239</v>
       </c>
@@ -3955,7 +3952,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>241</v>
       </c>
@@ -3973,7 +3970,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>244</v>
       </c>
@@ -3988,10 +3985,10 @@
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
       <c r="H96" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.35">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>245</v>
       </c>
@@ -4006,12 +4003,12 @@
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
       <c r="H97" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="L97" s="1"/>
       <c r="N97" s="1"/>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>247</v>
       </c>
@@ -4030,7 +4027,7 @@
       </c>
       <c r="L98" s="1"/>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>249</v>
       </c>
@@ -4048,7 +4045,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>252</v>
       </c>
@@ -4066,7 +4063,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>253</v>
       </c>
@@ -4086,7 +4083,7 @@
       <c r="K101" s="1"/>
       <c r="L101" s="1"/>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>255</v>
       </c>
@@ -4101,10 +4098,10 @@
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
       <c r="H102" s="1" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.35">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>257</v>
       </c>
@@ -4119,11 +4116,11 @@
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
       <c r="H103" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J103" s="1"/>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>259</v>
       </c>
@@ -4138,12 +4135,12 @@
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
       <c r="H104" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J104" s="1"/>
       <c r="L104" s="1"/>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>261</v>
       </c>
@@ -4161,7 +4158,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>263</v>
       </c>
@@ -4179,7 +4176,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>265</v>
       </c>
@@ -4197,7 +4194,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>267</v>
       </c>
@@ -4215,7 +4212,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>270</v>
       </c>
@@ -4233,7 +4230,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>269</v>
       </c>
@@ -4252,7 +4249,7 @@
       </c>
       <c r="L110" s="1"/>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>273</v>
       </c>
@@ -4270,7 +4267,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>275</v>
       </c>
@@ -4288,7 +4285,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>277</v>
       </c>
@@ -4303,10 +4300,10 @@
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
       <c r="H113" s="1" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>279</v>
       </c>
@@ -4324,12 +4321,12 @@
         <v>378</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>281</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C115" s="1"/>
       <c r="D115" s="1" t="s">
@@ -4343,7 +4340,7 @@
       </c>
       <c r="K115" s="1"/>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>282</v>
       </c>
@@ -4362,7 +4359,7 @@
       </c>
       <c r="L116" s="1"/>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>284</v>
       </c>
@@ -4377,12 +4374,12 @@
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
       <c r="H117" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K117" s="1"/>
       <c r="L117" s="1"/>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>286</v>
       </c>
@@ -4397,10 +4394,10 @@
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
       <c r="H118" s="1" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>288</v>
       </c>
@@ -4415,11 +4412,11 @@
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
       <c r="H119" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K119" s="1"/>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>290</v>
       </c>
@@ -4438,7 +4435,7 @@
       </c>
       <c r="K120" s="1"/>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>292</v>
       </c>
@@ -4456,7 +4453,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>294</v>
       </c>
@@ -4474,7 +4471,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>296</v>
       </c>
@@ -4492,7 +4489,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>299</v>
       </c>
@@ -4510,7 +4507,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>298</v>
       </c>
@@ -4528,7 +4525,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>302</v>
       </c>
@@ -4546,7 +4543,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>304</v>
       </c>
@@ -4564,7 +4561,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>306</v>
       </c>
@@ -4582,7 +4579,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>308</v>
       </c>
@@ -4600,7 +4597,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>310</v>
       </c>
@@ -4615,10 +4612,10 @@
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
       <c r="H130" s="1" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.35">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>312</v>
       </c>
@@ -4636,7 +4633,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>314</v>
       </c>
@@ -4654,7 +4651,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>316</v>
       </c>
@@ -4672,7 +4669,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>318</v>
       </c>
@@ -4690,7 +4687,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>320</v>
       </c>
@@ -4708,7 +4705,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>322</v>
       </c>
@@ -4723,11 +4720,11 @@
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
       <c r="H136" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="M136" s="1"/>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>324</v>
       </c>
@@ -4742,10 +4739,10 @@
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
       <c r="H137" s="1" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.35">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>326</v>
       </c>
@@ -4760,10 +4757,10 @@
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
       <c r="H138" s="1" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.35">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>328</v>
       </c>
@@ -4778,11 +4775,11 @@
       <c r="F139" s="1"/>
       <c r="G139" s="1"/>
       <c r="H139" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J139" s="1"/>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>330</v>
       </c>
@@ -4797,10 +4794,10 @@
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
       <c r="H140" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.35">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>332</v>
       </c>
@@ -4815,10 +4812,10 @@
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
       <c r="H141" s="1" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.35">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>334</v>
       </c>
@@ -4833,10 +4830,10 @@
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
       <c r="H142" s="1" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.35">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>336</v>
       </c>
@@ -4851,10 +4848,10 @@
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
       <c r="H143" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.35">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>338</v>
       </c>
@@ -4869,10 +4866,10 @@
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
       <c r="H144" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>341</v>
       </c>
@@ -4887,10 +4884,10 @@
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
       <c r="H145" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>342</v>
       </c>
@@ -4905,10 +4902,10 @@
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
       <c r="H146" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>344</v>
       </c>
@@ -4923,10 +4920,10 @@
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
       <c r="H147" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>346</v>
       </c>
@@ -4941,10 +4938,10 @@
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
       <c r="H148" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>348</v>
       </c>
@@ -4959,10 +4956,10 @@
       <c r="F149" s="1"/>
       <c r="G149" s="1"/>
       <c r="H149" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>350</v>
       </c>
@@ -4977,10 +4974,10 @@
       <c r="F150" s="1"/>
       <c r="G150" s="1"/>
       <c r="H150" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>352</v>
       </c>
@@ -4991,10 +4988,10 @@
         <v>22</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>354</v>
       </c>
@@ -5009,10 +5006,10 @@
       <c r="F152" s="1"/>
       <c r="G152" s="1"/>
       <c r="H152" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>356</v>
       </c>
@@ -5027,10 +5024,10 @@
       <c r="F153" s="1"/>
       <c r="G153" s="1"/>
       <c r="H153" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>358</v>
       </c>
@@ -5045,10 +5042,10 @@
       <c r="F154" s="1"/>
       <c r="G154" s="1"/>
       <c r="H154" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>361</v>
       </c>
@@ -5063,10 +5060,10 @@
       <c r="F155" s="1"/>
       <c r="G155" s="1"/>
       <c r="H155" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>362</v>
       </c>
@@ -5084,7 +5081,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>364</v>
       </c>
@@ -5099,10 +5096,10 @@
       <c r="F157" s="1"/>
       <c r="G157" s="1"/>
       <c r="H157" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>366</v>
       </c>
@@ -5117,24 +5114,24 @@
       <c r="F158" s="1"/>
       <c r="G158" s="1"/>
       <c r="H158" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B159" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="B159" s="1" t="s">
-        <v>515</v>
-      </c>
       <c r="D159" s="1" t="s">
         <v>22</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>368</v>
       </c>
@@ -5149,10 +5146,10 @@
       <c r="F160" s="1"/>
       <c r="G160" s="1"/>
       <c r="H160" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.35">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>370</v>
       </c>
@@ -5167,11 +5164,11 @@
       <c r="F161" s="1"/>
       <c r="G161" s="1"/>
       <c r="H161" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J161" s="1"/>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>372</v>
       </c>
@@ -5186,10 +5183,10 @@
       <c r="F162" s="1"/>
       <c r="G162" s="1"/>
       <c r="H162" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.35">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>374</v>
       </c>
@@ -5204,10 +5201,10 @@
       <c r="F163" s="1"/>
       <c r="G163" s="1"/>
       <c r="H163" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.35">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>377</v>
       </c>
@@ -5225,69 +5222,69 @@
         <v>378</v>
       </c>
     </row>
-    <row r="165" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B165" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="B165" s="1" t="s">
+      <c r="D165" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H165" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="D165" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H165" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="166" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A166" s="1" t="s">
+      <c r="B166" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="B166" s="1" t="s">
+      <c r="D166" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H166" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="D166" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H166" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="167" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A167" s="1" t="s">
+      <c r="B167" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="B167" s="1" t="s">
+      <c r="D167" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H167" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H168" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="D167" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H167" s="1" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="168" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A168" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="D168" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H168" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="169" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A169" s="1" t="s">
+      <c r="B169" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="B169" s="1" t="s">
-        <v>474</v>
-      </c>
       <c r="D169" s="1" t="s">
         <v>22</v>
       </c>
@@ -5295,12 +5292,12 @@
         <v>378</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C170" s="1"/>
       <c r="D170" s="1" t="s">
@@ -5313,12 +5310,12 @@
         <v>378</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C171" s="1"/>
       <c r="D171" s="1" t="s">
@@ -5331,12 +5328,12 @@
         <v>378</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C172" s="1"/>
       <c r="D172" s="1" t="s">
@@ -5349,12 +5346,12 @@
         <v>378</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C173" s="1"/>
       <c r="D173" s="1" t="s">
@@ -5367,12 +5364,12 @@
         <v>378</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C174" s="1"/>
       <c r="D174" s="1" t="s">
@@ -5385,12 +5382,12 @@
         <v>378</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C175" s="1"/>
       <c r="D175" s="1" t="s">
@@ -5403,12 +5400,12 @@
         <v>378</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C176" s="1"/>
       <c r="D176" s="1" t="s">
@@ -5421,12 +5418,12 @@
         <v>378</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C177" s="1"/>
       <c r="D177" s="1" t="s">
@@ -5439,12 +5436,12 @@
         <v>378</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C178" s="1"/>
       <c r="D178" s="1" t="s">
@@ -5457,12 +5454,12 @@
         <v>378</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C179" s="1"/>
       <c r="D179" s="1" t="s">
@@ -5475,12 +5472,12 @@
         <v>378</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C180" s="1"/>
       <c r="D180" s="1" t="s">
@@ -5490,15 +5487,15 @@
       <c r="F180" s="1"/>
       <c r="G180" s="1"/>
       <c r="H180" s="1" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.35">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C181" s="1"/>
       <c r="D181" s="1" t="s">
@@ -5511,12 +5508,12 @@
         <v>378</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C182" s="1"/>
       <c r="D182" s="1" t="s">
@@ -5529,12 +5526,12 @@
         <v>378</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C183" s="1"/>
       <c r="D183" s="1" t="s">
@@ -5547,12 +5544,12 @@
         <v>378</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C184" s="1"/>
       <c r="D184" s="1" t="s">
@@ -5565,12 +5562,12 @@
         <v>378</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C185" s="1"/>
       <c r="D185" s="1" t="s">
@@ -5583,12 +5580,12 @@
         <v>378</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C186" s="1"/>
       <c r="D186" s="1" t="s">
@@ -5601,12 +5598,12 @@
         <v>378</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B187" s="1" t="s">
         <v>427</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>428</v>
       </c>
       <c r="C187" s="1"/>
       <c r="D187" s="1" t="s">
@@ -5619,12 +5616,12 @@
         <v>378</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B188" s="1" t="s">
         <v>429</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>430</v>
       </c>
       <c r="C188" s="1"/>
       <c r="D188" s="1" t="s">
@@ -5637,12 +5634,12 @@
         <v>378</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B189" s="1" t="s">
         <v>431</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>432</v>
       </c>
       <c r="C189" s="1"/>
       <c r="D189" s="1" t="s">
@@ -5655,12 +5652,12 @@
         <v>378</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C190" s="1"/>
       <c r="D190" s="1" t="s">
@@ -5673,12 +5670,12 @@
         <v>378</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C191" s="1"/>
       <c r="D191" s="1" t="s">
@@ -5691,12 +5688,12 @@
         <v>378</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C192" s="1"/>
       <c r="D192" s="1" t="s">
@@ -5709,12 +5706,12 @@
         <v>378</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C193" s="1"/>
       <c r="D193" s="1" t="s">
@@ -5727,12 +5724,12 @@
         <v>378</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C194" s="1"/>
       <c r="D194" s="1" t="s">
@@ -5745,12 +5742,12 @@
         <v>378</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C195" s="1"/>
       <c r="D195" s="1" t="s">
@@ -5763,12 +5760,12 @@
         <v>378</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C196" s="1"/>
       <c r="D196" s="1" t="s">
@@ -5781,12 +5778,12 @@
         <v>378</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C197" s="1"/>
       <c r="D197" s="1" t="s">
@@ -5799,12 +5796,12 @@
         <v>378</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C198" s="1"/>
       <c r="D198" s="1" t="s">
@@ -5817,12 +5814,12 @@
         <v>378</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C199" s="1"/>
       <c r="D199" s="1" t="s">
@@ -5835,12 +5832,12 @@
         <v>378</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C200" s="1"/>
       <c r="D200" s="1" t="s">
@@ -5853,12 +5850,12 @@
         <v>378</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C201" s="1"/>
       <c r="D201" s="1" t="s">
@@ -5871,12 +5868,12 @@
         <v>378</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C202" s="1"/>
       <c r="D202" s="1" t="s">
@@ -5886,15 +5883,15 @@
       <c r="F202" s="1"/>
       <c r="G202" s="1"/>
       <c r="H202" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.35">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B203" s="1" t="s">
         <v>459</v>
-      </c>
-      <c r="B203" s="1" t="s">
-        <v>460</v>
       </c>
       <c r="C203" s="1"/>
       <c r="D203" s="1" t="s">
@@ -5904,15 +5901,15 @@
       <c r="F203" s="1"/>
       <c r="G203" s="1"/>
       <c r="H203" s="1" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.35">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B204" s="1" t="s">
         <v>461</v>
-      </c>
-      <c r="B204" s="1" t="s">
-        <v>462</v>
       </c>
       <c r="C204" s="1"/>
       <c r="D204" s="1" t="s">
@@ -5925,12 +5922,12 @@
         <v>378</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B205" s="1" t="s">
         <v>463</v>
-      </c>
-      <c r="B205" s="1" t="s">
-        <v>464</v>
       </c>
       <c r="C205" s="1"/>
       <c r="D205" s="1" t="s">
@@ -5943,12 +5940,12 @@
         <v>378</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B206" s="1" t="s">
         <v>465</v>
-      </c>
-      <c r="B206" s="1" t="s">
-        <v>466</v>
       </c>
       <c r="C206" s="1"/>
       <c r="D206" s="1" t="s">
@@ -5961,12 +5958,12 @@
         <v>378</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B207" s="1" t="s">
         <v>476</v>
-      </c>
-      <c r="B207" s="1" t="s">
-        <v>477</v>
       </c>
       <c r="C207" s="1"/>
       <c r="D207" s="1" t="s">
@@ -5979,12 +5976,12 @@
         <v>378</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B208" s="1" t="s">
         <v>478</v>
-      </c>
-      <c r="B208" s="1" t="s">
-        <v>479</v>
       </c>
       <c r="C208" s="1"/>
       <c r="D208" s="1" t="s">
@@ -5997,12 +5994,12 @@
         <v>378</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B209" s="1" t="s">
         <v>480</v>
-      </c>
-      <c r="B209" s="1" t="s">
-        <v>481</v>
       </c>
       <c r="C209" s="1"/>
       <c r="D209" s="1" t="s">
@@ -6015,12 +6012,12 @@
         <v>378</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B210" s="1" t="s">
         <v>482</v>
-      </c>
-      <c r="B210" s="1" t="s">
-        <v>483</v>
       </c>
       <c r="C210" s="1"/>
       <c r="D210" s="1" t="s">
@@ -6033,12 +6030,12 @@
         <v>378</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B211" s="1" t="s">
         <v>484</v>
-      </c>
-      <c r="B211" s="1" t="s">
-        <v>485</v>
       </c>
       <c r="C211" s="1"/>
       <c r="D211" s="1" t="s">
@@ -6051,12 +6048,12 @@
         <v>378</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B212" s="1" t="s">
         <v>486</v>
-      </c>
-      <c r="B212" s="1" t="s">
-        <v>487</v>
       </c>
       <c r="C212" s="1"/>
       <c r="D212" s="1" t="s">
@@ -6069,12 +6066,12 @@
         <v>378</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B213" s="1" t="s">
         <v>488</v>
-      </c>
-      <c r="B213" s="1" t="s">
-        <v>489</v>
       </c>
       <c r="C213" s="1"/>
       <c r="D213" s="1" t="s">
@@ -6087,12 +6084,12 @@
         <v>378</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B214" s="1" t="s">
         <v>490</v>
-      </c>
-      <c r="B214" s="1" t="s">
-        <v>491</v>
       </c>
       <c r="C214" s="1"/>
       <c r="D214" s="1" t="s">
@@ -6105,12 +6102,12 @@
         <v>378</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B215" s="1" t="s">
         <v>492</v>
-      </c>
-      <c r="B215" s="1" t="s">
-        <v>493</v>
       </c>
       <c r="C215" s="1"/>
       <c r="D215" s="1" t="s">
@@ -6123,12 +6120,12 @@
         <v>378</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="B216" s="1" t="s">
         <v>494</v>
-      </c>
-      <c r="B216" s="1" t="s">
-        <v>495</v>
       </c>
       <c r="C216" s="1"/>
       <c r="D216" s="1" t="s">
@@ -6141,12 +6138,12 @@
         <v>378</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B217" s="1" t="s">
         <v>498</v>
-      </c>
-      <c r="B217" s="1" t="s">
-        <v>499</v>
       </c>
       <c r="C217" s="1"/>
       <c r="D217" s="1" t="s">
@@ -6159,12 +6156,12 @@
         <v>378</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C218" s="1"/>
       <c r="D218" s="1" t="s">
@@ -6174,15 +6171,15 @@
       <c r="F218" s="1"/>
       <c r="G218" s="1"/>
       <c r="H218" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.35">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C219" s="1"/>
       <c r="D219" s="1" t="s">
@@ -6192,15 +6189,15 @@
       <c r="F219" s="1"/>
       <c r="G219" s="1"/>
       <c r="H219" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.35">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C220" s="1"/>
       <c r="D220" s="1" t="s">
@@ -6210,15 +6207,15 @@
       <c r="F220" s="1"/>
       <c r="G220" s="1"/>
       <c r="H220" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.35">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C221" s="1"/>
       <c r="D221" s="1" t="s">
@@ -6228,15 +6225,15 @@
       <c r="F221" s="1"/>
       <c r="G221" s="1"/>
       <c r="H221" s="1" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.35">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C222" s="1"/>
       <c r="D222" s="1" t="s">
@@ -6249,12 +6246,12 @@
         <v>378</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C223" s="1"/>
       <c r="D223" s="1" t="s">
@@ -6264,15 +6261,15 @@
       <c r="F223" s="1"/>
       <c r="G223" s="1"/>
       <c r="H223" s="1" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.35">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C224" s="1"/>
       <c r="D224" s="1" t="s">
@@ -6282,15 +6279,15 @@
       <c r="F224" s="1"/>
       <c r="G224" s="1"/>
       <c r="H224" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.35">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="B225" s="1" t="s">
         <v>516</v>
-      </c>
-      <c r="B225" s="1" t="s">
-        <v>517</v>
       </c>
       <c r="C225" s="1"/>
       <c r="D225" s="1" t="s">
@@ -6300,15 +6297,15 @@
       <c r="F225" s="1"/>
       <c r="G225" s="1"/>
       <c r="H225" s="1" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.35">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C226" s="1"/>
       <c r="D226" s="1" t="s">
@@ -6321,12 +6318,12 @@
         <v>378</v>
       </c>
     </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C227" s="1"/>
       <c r="D227" s="1" t="s">
@@ -6336,15 +6333,15 @@
       <c r="F227" s="1"/>
       <c r="G227" s="1"/>
       <c r="H227" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A228" s="1" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A228" s="1" t="s">
+      <c r="B228" s="1" t="s">
         <v>523</v>
-      </c>
-      <c r="B228" s="1" t="s">
-        <v>524</v>
       </c>
       <c r="C228" s="1"/>
       <c r="D228" s="1" t="s">
@@ -6354,16 +6351,16 @@
       <c r="F228" s="1"/>
       <c r="G228" s="1"/>
       <c r="H228" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="N228" s="1"/>
     </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B229" s="1" t="s">
         <v>525</v>
-      </c>
-      <c r="B229" s="1" t="s">
-        <v>526</v>
       </c>
       <c r="C229" s="1"/>
       <c r="D229" s="1" t="s">
@@ -6376,12 +6373,12 @@
         <v>378</v>
       </c>
     </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B230" s="1" t="s">
         <v>527</v>
-      </c>
-      <c r="B230" s="1" t="s">
-        <v>528</v>
       </c>
       <c r="C230" s="1"/>
       <c r="D230" s="1" t="s">
@@ -6394,12 +6391,12 @@
         <v>378</v>
       </c>
     </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B231" s="1" t="s">
         <v>529</v>
-      </c>
-      <c r="B231" s="1" t="s">
-        <v>530</v>
       </c>
       <c r="C231" s="1"/>
       <c r="D231" s="1" t="s">
@@ -6412,12 +6409,12 @@
         <v>378</v>
       </c>
     </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B232" s="1" t="s">
         <v>531</v>
-      </c>
-      <c r="B232" s="1" t="s">
-        <v>532</v>
       </c>
       <c r="C232" s="1"/>
       <c r="D232" s="1" t="s">
@@ -6430,12 +6427,12 @@
         <v>378</v>
       </c>
     </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B233" s="1" t="s">
         <v>535</v>
-      </c>
-      <c r="B233" s="1" t="s">
-        <v>536</v>
       </c>
       <c r="C233" s="1"/>
       <c r="D233" s="1" t="s">
@@ -6445,28 +6442,28 @@
       <c r="F233" s="1"/>
       <c r="G233" s="1"/>
       <c r="H233" s="1" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.35">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
       <c r="J234" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B234:B1048576 B1:B17">
-    <cfRule type="duplicateValues" dxfId="5" priority="8"/>
+  <conditionalFormatting sqref="B234:B1048576 B2:B17">
+    <cfRule type="duplicateValues" dxfId="4" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A234:A1048576 A1:A17">
-    <cfRule type="duplicateValues" dxfId="4" priority="7"/>
+  <conditionalFormatting sqref="A234:A1048576 A2:A17">
+    <cfRule type="duplicateValues" dxfId="3" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:B232">
-    <cfRule type="duplicateValues" dxfId="3" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:A233">
-    <cfRule type="duplicateValues" dxfId="2" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B233">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/src/Input_Files/characters/hre_characters.xlsx
+++ b/src/Input_Files/characters/hre_characters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python Scripts\imperator\ProvinceOrganizer\EP_ImperatorProvinceOrganizer\src\Input_Files\characters\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gebruiker\Desktop\CK\CKU_bestanden\Mapping\HRE_master_maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C05C91-E469-4F60-9EB8-6A44FF3E0BC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{306BB10D-D265-4D93-8236-F609424C04F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{E5B2FA9E-FCEB-4F64-AA77-9CDFE63EBBF9}"/>
+    <workbookView xWindow="-28920" yWindow="16080" windowWidth="29040" windowHeight="15840" xr2:uid="{E5B2FA9E-FCEB-4F64-AA77-9CDFE63EBBF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1381" uniqueCount="735">
   <si>
     <t>RGB</t>
   </si>
@@ -336,12 +336,6 @@
     <t>(94, 55, 85)</t>
   </si>
   <si>
-    <t>CKU_german_minor_1</t>
-  </si>
-  <si>
-    <t>(122, 158, 5)</t>
-  </si>
-  <si>
     <t>CKU_oldenburg_18</t>
   </si>
   <si>
@@ -426,12 +420,6 @@
     <t>(174, 83, 52)</t>
   </si>
   <si>
-    <t>CKU_isenburg_43</t>
-  </si>
-  <si>
-    <t>(188, 162, 59)</t>
-  </si>
-  <si>
     <t>CKU_isenburg_129</t>
   </si>
   <si>
@@ -456,18 +444,9 @@
     <t>(105, 169, 39)</t>
   </si>
   <si>
-    <t>CKU_hunolstein_7</t>
-  </si>
-  <si>
     <t>(60, 63, 56)</t>
   </si>
   <si>
-    <t>CKU_daun_oberstein_13</t>
-  </si>
-  <si>
-    <t>(169, 93, 68)</t>
-  </si>
-  <si>
     <t>CKU_katzenelnbogen_24</t>
   </si>
   <si>
@@ -519,1132 +498,1747 @@
     <t>(211, 82, 49)</t>
   </si>
   <si>
+    <t>CKU_egmont_33</t>
+  </si>
+  <si>
+    <t>(122, 146, 21)</t>
+  </si>
+  <si>
+    <t>CKU_buren_19</t>
+  </si>
+  <si>
+    <t>(68, 247, 67)</t>
+  </si>
+  <si>
+    <t>CKU_horne_29</t>
+  </si>
+  <si>
+    <t>(82, 239, 1)</t>
+  </si>
+  <si>
+    <t>CKU_sponheim_78</t>
+  </si>
+  <si>
+    <t>(210, 110, 28)</t>
+  </si>
+  <si>
+    <t>CKU_wittelsbach_42</t>
+  </si>
+  <si>
+    <t>(88, 90, 62)</t>
+  </si>
+  <si>
+    <t>CKU_ardenne_luxembourg_37</t>
+  </si>
+  <si>
+    <t>(188, 224, 62)</t>
+  </si>
+  <si>
+    <t>CKU_tubingen_82</t>
+  </si>
+  <si>
+    <t>(88, 146, 74)</t>
+  </si>
+  <si>
+    <t>CKU_freundsberg_15</t>
+  </si>
+  <si>
+    <t>(247, 185, 45)</t>
+  </si>
+  <si>
+    <t>CKU_german_minor_11</t>
+  </si>
+  <si>
+    <t>(133, 215, 55)</t>
+  </si>
+  <si>
+    <t>CKU_german_minor_12</t>
+  </si>
+  <si>
+    <t>(115, 160, 47)</t>
+  </si>
+  <si>
+    <t>CKU_german_minor_14</t>
+  </si>
+  <si>
+    <t>CKU_gorizia_27</t>
+  </si>
+  <si>
+    <t>(170, 101, 51)</t>
+  </si>
+  <si>
+    <t>(233, 251, 11)</t>
+  </si>
+  <si>
+    <t>CKU_german_minor_15</t>
+  </si>
+  <si>
+    <t>(179, 75, 19)</t>
+  </si>
+  <si>
+    <t>CKU_german_minor_16</t>
+  </si>
+  <si>
+    <t>(96, 195, 64)</t>
+  </si>
+  <si>
+    <t>CKU_german_minor_18</t>
+  </si>
+  <si>
+    <t>(158, 104, 44)</t>
+  </si>
+  <si>
+    <t>CKU_german_minor_19</t>
+  </si>
+  <si>
+    <t>(50, 188, 69)</t>
+  </si>
+  <si>
+    <t>CKU_german_minor_20</t>
+  </si>
+  <si>
+    <t>(70, 166, 22)</t>
+  </si>
+  <si>
+    <t>CKU_german_minor_21</t>
+  </si>
+  <si>
+    <t>(75, 75, 46)</t>
+  </si>
+  <si>
+    <t>CKU_german_minor_22</t>
+  </si>
+  <si>
+    <t>(182, 115, 32)</t>
+  </si>
+  <si>
+    <t>CKU_german_minor_23</t>
+  </si>
+  <si>
+    <t>(99, 255, 4)</t>
+  </si>
+  <si>
+    <t>CKU_german_minor_24</t>
+  </si>
+  <si>
+    <t>(219, 105, 105)</t>
+  </si>
+  <si>
+    <t>CKU_german_minor_26</t>
+  </si>
+  <si>
+    <t>(219, 59, 14)</t>
+  </si>
+  <si>
+    <t>CKU_fraunberg_20</t>
+  </si>
+  <si>
+    <t>(198, 168, 7)</t>
+  </si>
+  <si>
+    <t>CKU_german_minor_27</t>
+  </si>
+  <si>
+    <t>(222, 121, 63)</t>
+  </si>
+  <si>
+    <t>CKU_laber_13</t>
+  </si>
+  <si>
+    <t>(96, 178, 49)</t>
+  </si>
+  <si>
+    <t>CKU_rechberg_55</t>
+  </si>
+  <si>
+    <t>(239, 164, 49)</t>
+  </si>
+  <si>
+    <t>CKU_oettingen_31</t>
+  </si>
+  <si>
+    <t>(149, 161, 39)</t>
+  </si>
+  <si>
+    <t>CKU_leuchtenberg_24</t>
+  </si>
+  <si>
+    <t>(251, 180, 34)</t>
+  </si>
+  <si>
+    <t>CKU_hohenzollern_10</t>
+  </si>
+  <si>
+    <t>(73, 169, 75)</t>
+  </si>
+  <si>
+    <t>(144, 178, 6)</t>
+  </si>
+  <si>
+    <t>CKU_hohenzollern_15</t>
+  </si>
+  <si>
+    <t>CKU_hohenzollern_14</t>
+  </si>
+  <si>
+    <t>(122, 136, 0)</t>
+  </si>
+  <si>
+    <t>CKU_wettin_6</t>
+  </si>
+  <si>
+    <t>(94, 146, 56)</t>
+  </si>
+  <si>
+    <t>CKU_castell_12</t>
+  </si>
+  <si>
+    <t>(63, 94, 50)</t>
+  </si>
+  <si>
+    <t>CKU_limpurg_15</t>
+  </si>
+  <si>
+    <t>(58, 255, 45)</t>
+  </si>
+  <si>
+    <t>(81, 179, 2)</t>
+  </si>
+  <si>
+    <t>CKU_loon_17</t>
+  </si>
+  <si>
+    <t>CKU_francien_minor_78</t>
+  </si>
+  <si>
+    <t>(180, 195, 22)</t>
+  </si>
+  <si>
+    <t>CKU_henneberg_58</t>
+  </si>
+  <si>
+    <t>(175, 182, 50)</t>
+  </si>
+  <si>
+    <t>CKU_schwarzburg_63</t>
+  </si>
+  <si>
+    <t>(50, 182, 48)</t>
+  </si>
+  <si>
+    <t>(133, 249, 32)</t>
+  </si>
+  <si>
+    <t>CKU_schwarzburg_68</t>
+  </si>
+  <si>
+    <t>CKU_reuss_64</t>
+  </si>
+  <si>
+    <t>(59, 202, 45)</t>
+  </si>
+  <si>
+    <t>CKU_reuss_65</t>
+  </si>
+  <si>
+    <t>(90, 81, 38)</t>
+  </si>
+  <si>
+    <t>CKU_reuss_78</t>
+  </si>
+  <si>
+    <t>(192, 87, 62)</t>
+  </si>
+  <si>
+    <t>CKU_askanier_45</t>
+  </si>
+  <si>
+    <t>(124, 244, 68)</t>
+  </si>
+  <si>
+    <t>CKU_german_minor_29</t>
+  </si>
+  <si>
+    <t>(62, 244, 74)</t>
+  </si>
+  <si>
+    <t>CKU_german_minor_30</t>
+  </si>
+  <si>
+    <t>(169, 182, 53)</t>
+  </si>
+  <si>
+    <t>CKU_german_minor_31</t>
+  </si>
+  <si>
+    <t>CKU_querfurt_41</t>
+  </si>
+  <si>
+    <t>(254, 88, 33)</t>
+  </si>
+  <si>
+    <t>(68, 74, 67)</t>
+  </si>
+  <si>
+    <t>CKU_german_minor_32</t>
+  </si>
+  <si>
+    <t>(185, 140, 65)</t>
+  </si>
+  <si>
+    <t>CKU_savoy_10</t>
+  </si>
+  <si>
+    <t>(71, 201, 58)</t>
+  </si>
+  <si>
+    <t>CKU_alvensleben_33</t>
+  </si>
+  <si>
+    <t>(226, 143, 64)</t>
+  </si>
+  <si>
+    <t>CKU_bodenhausen_9</t>
+  </si>
+  <si>
+    <t>(183, 165, 21)</t>
+  </si>
+  <si>
+    <t>CKU_german_minor_33</t>
+  </si>
+  <si>
+    <t>CKU_german_minor_34</t>
+  </si>
+  <si>
+    <t>(121, 186, 40)</t>
+  </si>
+  <si>
+    <t>CKU_arnstein_25</t>
+  </si>
+  <si>
+    <t>(231, 53, 38)</t>
+  </si>
+  <si>
+    <t>CKU_german_minor_35</t>
+  </si>
+  <si>
+    <t>(234, 242, 46)</t>
+  </si>
+  <si>
+    <t>CKU_mecklenburg_4</t>
+  </si>
+  <si>
+    <t>(140, 209, 17)</t>
+  </si>
+  <si>
+    <t>CKU_mecklenburg_18</t>
+  </si>
+  <si>
+    <t>(176, 115, 41)</t>
+  </si>
+  <si>
+    <t>CKU_welf_76</t>
+  </si>
+  <si>
+    <t>(170, 233, 30)</t>
+  </si>
+  <si>
+    <t>CKU_welf_89</t>
+  </si>
+  <si>
+    <t>(159, 71, 22)</t>
+  </si>
+  <si>
+    <t>CKU_welf_100</t>
+  </si>
+  <si>
+    <t>CKU_welf_85</t>
+  </si>
+  <si>
+    <t>(76, 238, 5)</t>
+  </si>
+  <si>
+    <t>(86, 187, 12)</t>
+  </si>
+  <si>
+    <t>CKU_askanier_59</t>
+  </si>
+  <si>
+    <t>(216, 196, 51)</t>
+  </si>
+  <si>
+    <t>CKU_griffin_36</t>
+  </si>
+  <si>
+    <t>(246, 183, 35)</t>
+  </si>
+  <si>
+    <t>CKU_griffin_21</t>
+  </si>
+  <si>
+    <t>(250, 148, 44)</t>
+  </si>
+  <si>
+    <t>CKU_griffin_20</t>
+  </si>
+  <si>
+    <t>(227, 176, 68)</t>
+  </si>
+  <si>
+    <t>CKU_german_minor_37</t>
+  </si>
+  <si>
+    <t>(114, 236, 52)</t>
+  </si>
+  <si>
+    <t>CKU_schwalenberg_15</t>
+  </si>
+  <si>
+    <t>(61, 180, 49)</t>
+  </si>
+  <si>
+    <t>CKU_german_minor_38</t>
+  </si>
+  <si>
+    <t>(209, 183, 8)</t>
+  </si>
+  <si>
+    <t>CKU_german_minor_39</t>
+  </si>
+  <si>
+    <t>(97, 179, 45)</t>
+  </si>
+  <si>
+    <t>CKU_german_minor_41</t>
+  </si>
+  <si>
+    <t>(253, 228, 64)</t>
+  </si>
+  <si>
+    <t>CKU_benesovici_14</t>
+  </si>
+  <si>
+    <t>(209, 138, 38)</t>
+  </si>
+  <si>
+    <t>CKU_holstejn_12</t>
+  </si>
+  <si>
+    <t>(220, 91, 3)</t>
+  </si>
+  <si>
+    <t>CKU_zerotina_10</t>
+  </si>
+  <si>
+    <t>(114, 226, 71)</t>
+  </si>
+  <si>
+    <t>CKU_premyslid_14</t>
+  </si>
+  <si>
+    <t>(225, 92, 41)</t>
+  </si>
+  <si>
+    <t>CKU_premyslid_4</t>
+  </si>
+  <si>
+    <t>(137, 99, 38)</t>
+  </si>
+  <si>
+    <t>CKU_tunkl_2</t>
+  </si>
+  <si>
+    <t>(50, 188, 53)</t>
+  </si>
+  <si>
+    <t>CKU_czech_minor_1</t>
+  </si>
+  <si>
+    <t>(217, 86, 58)</t>
+  </si>
+  <si>
+    <t>CKU_podebrad_32</t>
+  </si>
+  <si>
+    <t>(56, 107, 65)</t>
+  </si>
+  <si>
+    <t>CKU_pernstejn_7</t>
+  </si>
+  <si>
+    <t>(140, 235, 24)</t>
+  </si>
+  <si>
+    <t>(76, 57, 9)</t>
+  </si>
+  <si>
+    <t>CKU_czech_minor_2</t>
+  </si>
+  <si>
+    <t>(135, 253, 28)</t>
+  </si>
+  <si>
+    <t>CKU_czech_minor_3</t>
+  </si>
+  <si>
+    <t>(210, 190, 56)</t>
+  </si>
+  <si>
+    <t>CKU_rozmberka_15</t>
+  </si>
+  <si>
+    <t>(128, 119, 58)</t>
+  </si>
+  <si>
+    <t>CKU_kaplirove_ze_sulevic_13</t>
+  </si>
+  <si>
+    <t>(75, 102, 8)</t>
+  </si>
+  <si>
+    <t>CKU_sternberka_33</t>
+  </si>
+  <si>
+    <t>(93, 138, 9)</t>
+  </si>
+  <si>
+    <t>CKU_markvartici_24</t>
+  </si>
+  <si>
+    <t>(157, 110, 48)</t>
+  </si>
+  <si>
+    <t>CKU_markvartici_110</t>
+  </si>
+  <si>
+    <t>(238, 57, 15)</t>
+  </si>
+  <si>
+    <t>CKU_dube_135</t>
+  </si>
+  <si>
+    <t>(240, 140, 42)</t>
+  </si>
+  <si>
+    <t>CKU_vresovice_1</t>
+  </si>
+  <si>
+    <t>(254, 96, 22)</t>
+  </si>
+  <si>
+    <t>(98, 144, 34)</t>
+  </si>
+  <si>
+    <t>CKU_hazmburka_9</t>
+  </si>
+  <si>
+    <t>CKU_kolovrat_8</t>
+  </si>
+  <si>
+    <t>(231, 226, 16)</t>
+  </si>
+  <si>
+    <t>CKU_czech_minor_4</t>
+  </si>
+  <si>
+    <t>(228, 88, 51)</t>
+  </si>
+  <si>
+    <t>CKU_czech_minor_5</t>
+  </si>
+  <si>
+    <t>(130, 108, 62)</t>
+  </si>
+  <si>
+    <t>CKU_svamberk_4</t>
+  </si>
+  <si>
+    <t>(172, 193, 30)</t>
+  </si>
+  <si>
+    <t>CKU_lipe_15</t>
+  </si>
+  <si>
+    <t>(95, 201, 6)</t>
+  </si>
+  <si>
+    <t>CKU_gutstejna_38</t>
+  </si>
+  <si>
+    <t>(229, 178, 59)</t>
+  </si>
+  <si>
+    <t>CKU_gutstejna_15</t>
+  </si>
+  <si>
+    <t>(139, 162, 4)</t>
+  </si>
+  <si>
+    <t>(228, 74, 52)</t>
+  </si>
+  <si>
+    <t>CKU_schaumburg_17</t>
+  </si>
+  <si>
+    <t>e_hre</t>
+  </si>
+  <si>
+    <t>d_lorraine</t>
+  </si>
+  <si>
+    <t>k_denmark</t>
+  </si>
+  <si>
+    <t>d_gelre</t>
+  </si>
+  <si>
+    <t>d_liege</t>
+  </si>
+  <si>
+    <t>d_tirol</t>
+  </si>
+  <si>
+    <t>d_salzburg</t>
+  </si>
+  <si>
+    <t>d_wurzburg</t>
+  </si>
+  <si>
+    <t>d_savoue</t>
+  </si>
+  <si>
+    <t>d_sachsen</t>
+  </si>
+  <si>
+    <t>d_brandenburg</t>
+  </si>
+  <si>
+    <t>k_cechy</t>
+  </si>
+  <si>
+    <t>d_morava</t>
+  </si>
+  <si>
+    <t>(148, 131, 28)</t>
+  </si>
+  <si>
+    <t>CKU_german_minor_42</t>
+  </si>
+  <si>
+    <t>CKU_german_minor_43</t>
+  </si>
+  <si>
+    <t>CKU_german_minor_44</t>
+  </si>
+  <si>
+    <t>CKU_german_minor_45</t>
+  </si>
+  <si>
+    <t>CKU_german_minor_46</t>
+  </si>
+  <si>
+    <t>CKU_german_minor_47</t>
+  </si>
+  <si>
+    <t>CKU_german_minor_48</t>
+  </si>
+  <si>
+    <t>CKU_german_minor_49</t>
+  </si>
+  <si>
+    <t>CKU_german_minor_50</t>
+  </si>
+  <si>
+    <t>CKU_german_minor_51</t>
+  </si>
+  <si>
+    <t>CKU_german_minor_52</t>
+  </si>
+  <si>
+    <t>CKU_german_minor_53</t>
+  </si>
+  <si>
+    <t>CKU_german_minor_54</t>
+  </si>
+  <si>
+    <t>CKU_german_minor_55</t>
+  </si>
+  <si>
+    <t>(200, 134, 21)</t>
+  </si>
+  <si>
+    <t>(160, 162, 5)</t>
+  </si>
+  <si>
+    <t>(127, 178, 14)</t>
+  </si>
+  <si>
+    <t>(200, 252, 26)</t>
+  </si>
+  <si>
+    <t>(160, 66, 189)</t>
+  </si>
+  <si>
+    <t>(147, 254, 26)</t>
+  </si>
+  <si>
+    <t>(114, 167, 143)</t>
+  </si>
+  <si>
+    <t>(206, 201, 61)</t>
+  </si>
+  <si>
+    <t>(120, 132, 26)</t>
+  </si>
+  <si>
+    <t>(250, 173, 70)</t>
+  </si>
+  <si>
+    <t>(64, 181, 8)</t>
+  </si>
+  <si>
+    <t>(175, 194, 5)</t>
+  </si>
+  <si>
+    <t>(99, 253, 54)</t>
+  </si>
+  <si>
+    <t>CKU_german_minor_56</t>
+  </si>
+  <si>
+    <t>CKU_german_minor_57</t>
+  </si>
+  <si>
+    <t>CKU_german_minor_58</t>
+  </si>
+  <si>
+    <t>(151, 193, 70)</t>
+  </si>
+  <si>
+    <t>(194, 181, 13)</t>
+  </si>
+  <si>
+    <t>(117, 121, 71)</t>
+  </si>
+  <si>
+    <t>CKU_german_minor_59</t>
+  </si>
+  <si>
+    <t>(174, 252, 21)</t>
+  </si>
+  <si>
+    <t>CKU_german_minor_60</t>
+  </si>
+  <si>
+    <t>(165, 208, 73)</t>
+  </si>
+  <si>
+    <t>CKU_german_minor_62</t>
+  </si>
+  <si>
+    <t>CKU_german_minor_63</t>
+  </si>
+  <si>
+    <t>CKU_german_minor_64</t>
+  </si>
+  <si>
+    <t>CKU_german_minor_65</t>
+  </si>
+  <si>
+    <t>CKU_german_minor_66</t>
+  </si>
+  <si>
+    <t>CKU_german_minor_67</t>
+  </si>
+  <si>
+    <t>CKU_german_minor_68</t>
+  </si>
+  <si>
+    <t>CKU_german_minor_69</t>
+  </si>
+  <si>
+    <t>CKU_german_minor_72</t>
+  </si>
+  <si>
+    <t>CKU_german_minor_73</t>
+  </si>
+  <si>
+    <t>CKU_german_minor_74</t>
+  </si>
+  <si>
+    <t>(171, 84, 27)</t>
+  </si>
+  <si>
+    <t>(224, 168, 0)</t>
+  </si>
+  <si>
+    <t>(234, 120, 7)</t>
+  </si>
+  <si>
+    <t>(72, 62, 69)</t>
+  </si>
+  <si>
+    <t>(198, 160, 48)</t>
+  </si>
+  <si>
+    <t>(107, 182, 7)</t>
+  </si>
+  <si>
+    <t>(69, 197, 67)</t>
+  </si>
+  <si>
+    <t>(139, 235, 69)</t>
+  </si>
+  <si>
+    <t>(161, 200, 27)</t>
+  </si>
+  <si>
+    <t>(158, 95, 40)</t>
+  </si>
+  <si>
+    <t>(60, 127, 18)</t>
+  </si>
+  <si>
+    <t>CKU_german_minor_75</t>
+  </si>
+  <si>
+    <t>(179, 71, 64)</t>
+  </si>
+  <si>
+    <t>CKU_german_minor_76</t>
+  </si>
+  <si>
+    <t>(248, 0, 0)</t>
+  </si>
+  <si>
+    <t>CKU_german_minor_77</t>
+  </si>
+  <si>
+    <t>(110, 202, 56)</t>
+  </si>
+  <si>
+    <t>CKU_german_minor_78</t>
+  </si>
+  <si>
+    <t>(53, 199, 139)</t>
+  </si>
+  <si>
+    <t>CKU_celje_8</t>
+  </si>
+  <si>
+    <t>(164, 122, 47)</t>
+  </si>
+  <si>
+    <t>CKU_celje_18</t>
+  </si>
+  <si>
+    <t>(172, 73, 6)</t>
+  </si>
+  <si>
+    <t>CKU_gruyere_24</t>
+  </si>
+  <si>
+    <t>(123, 147, 12)</t>
+  </si>
+  <si>
+    <t>CKU_german_minor_28</t>
+  </si>
+  <si>
+    <t>(155, 202, 10)</t>
+  </si>
+  <si>
+    <t>(95, 109, 73)</t>
+  </si>
+  <si>
+    <t>CKU_german_minor_79</t>
+  </si>
+  <si>
+    <t>(237, 30, 239)</t>
+  </si>
+  <si>
+    <t>CKU_german_minor_80</t>
+  </si>
+  <si>
+    <t>(90, 197, 46)</t>
+  </si>
+  <si>
+    <t>CKU_german_minor_81</t>
+  </si>
+  <si>
+    <t>(151, 72, 39)</t>
+  </si>
+  <si>
+    <t>CKU_german_minor_82</t>
+  </si>
+  <si>
+    <t>(67, 244, 21)</t>
+  </si>
+  <si>
+    <t>CKU_german_minor_83</t>
+  </si>
+  <si>
+    <t>(128, 75, 19)</t>
+  </si>
+  <si>
+    <t>CKU_german_minor_84</t>
+  </si>
+  <si>
+    <t>(208, 60, 66)</t>
+  </si>
+  <si>
+    <t>CKU_german_minor_85</t>
+  </si>
+  <si>
+    <t>(141, 148, 1)</t>
+  </si>
+  <si>
+    <t>CKU_german_minor_86</t>
+  </si>
+  <si>
+    <t>(68, 227, 184)</t>
+  </si>
+  <si>
+    <t>CKU_german_minor_87</t>
+  </si>
+  <si>
+    <t>(157, 71, 69)</t>
+  </si>
+  <si>
+    <t>CKU_german_minor_88</t>
+  </si>
+  <si>
+    <t>(135, 205, 38)</t>
+  </si>
+  <si>
+    <t>CKU_urach_2</t>
+  </si>
+  <si>
+    <t>(213, 231, 23)</t>
+  </si>
+  <si>
+    <t>CKU_german_minor_89</t>
+  </si>
+  <si>
+    <t>(137, 223, 36)</t>
+  </si>
+  <si>
+    <t>CKU_german_minor_90</t>
+  </si>
+  <si>
+    <t>CKU_german_minor_91</t>
+  </si>
+  <si>
+    <t>CKU_german_minor_92</t>
+  </si>
+  <si>
+    <t>(134, 52, 52)</t>
+  </si>
+  <si>
+    <t>(136, 124, 10)</t>
+  </si>
+  <si>
+    <t>(71, 211, 67)</t>
+  </si>
+  <si>
+    <t>CKU_german_minor_93</t>
+  </si>
+  <si>
+    <t>CKU_german_minor_94</t>
+  </si>
+  <si>
+    <t>CKU_german_minor_95</t>
+  </si>
+  <si>
+    <t>CKU_german_minor_96</t>
+  </si>
+  <si>
+    <t>(145, 216, 25)</t>
+  </si>
+  <si>
+    <t>(244, 201, 66)</t>
+  </si>
+  <si>
+    <t>(60, 148, 39)</t>
+  </si>
+  <si>
+    <t>(51, 164, 40)</t>
+  </si>
+  <si>
+    <t>CKU_czech_minor_6</t>
+  </si>
+  <si>
+    <t>(77, 251, 59)</t>
+  </si>
+  <si>
+    <t>CKU_german_minor_97</t>
+  </si>
+  <si>
+    <t>(162, 207, 3)</t>
+  </si>
+  <si>
+    <t>CKU_german_minor_98</t>
+  </si>
+  <si>
+    <t>CKU_german_minor_99</t>
+  </si>
+  <si>
+    <t>(81, 73, 53)</t>
+  </si>
+  <si>
+    <t>(93, 236, 24)</t>
+  </si>
+  <si>
+    <t>d_bremen</t>
+  </si>
+  <si>
+    <t>CKU_german_minor_100</t>
+  </si>
+  <si>
+    <t>(151, 91, 1)</t>
+  </si>
+  <si>
+    <t>CKU_german_minor_101</t>
+  </si>
+  <si>
+    <t>(157, 122, 67)</t>
+  </si>
+  <si>
+    <t>CKU_german_minor_102</t>
+  </si>
+  <si>
+    <t>(186, 73, 11)</t>
+  </si>
+  <si>
+    <t>CKU_german_minor_103</t>
+  </si>
+  <si>
+    <t>(206, 242, 9)</t>
+  </si>
+  <si>
+    <t>CKU_german_minor_104</t>
+  </si>
+  <si>
+    <t>(198, 202, 39)</t>
+  </si>
+  <si>
+    <t>CKU_german_minor_105</t>
+  </si>
+  <si>
+    <t>(128, 239, 70)</t>
+  </si>
+  <si>
+    <t>Liege Title</t>
+  </si>
+  <si>
+    <t>Primary Title</t>
+  </si>
+  <si>
+    <t>realm_succession_laws</t>
+  </si>
+  <si>
+    <t>c_joinville</t>
+  </si>
+  <si>
+    <t>single_heir_succession_law;male_preference_law</t>
+  </si>
+  <si>
+    <t>c_tirol</t>
+  </si>
+  <si>
+    <t>d_osterreich</t>
+  </si>
+  <si>
+    <t>d_baden</t>
+  </si>
+  <si>
+    <t>single_heir_succession_law;male_only_law</t>
+  </si>
+  <si>
+    <t>high_partition_succession_law;male_only_law</t>
+  </si>
+  <si>
+    <t>d_pfalz</t>
+  </si>
+  <si>
+    <t>c_simmern</t>
+  </si>
+  <si>
+    <t>c_zweibrucken</t>
+  </si>
+  <si>
+    <t>c_wurttemberg</t>
+  </si>
+  <si>
+    <t>c_saarbrucken</t>
+  </si>
+  <si>
+    <t>c_nassau</t>
+  </si>
+  <si>
+    <t>c_moers</t>
+  </si>
+  <si>
+    <t>c_saarwerden</t>
+  </si>
+  <si>
+    <t>d_munster</t>
+  </si>
+  <si>
+    <t>c_furstenberg</t>
+  </si>
+  <si>
+    <t>c_wertheim</t>
+  </si>
+  <si>
+    <t>c_oldenburg</t>
+  </si>
+  <si>
+    <t>c_bentheim</t>
+  </si>
+  <si>
+    <t>c_diepholz</t>
+  </si>
+  <si>
+    <t>c_minden</t>
+  </si>
+  <si>
+    <t>c_hoya</t>
+  </si>
+  <si>
+    <t>c_tecklenburg</t>
+  </si>
+  <si>
+    <t>c_kleef</t>
+  </si>
+  <si>
+    <t>c_lippe</t>
+  </si>
+  <si>
+    <t>d_julich</t>
+  </si>
+  <si>
+    <t>c_werden</t>
+  </si>
+  <si>
+    <t>c_sayn</t>
+  </si>
+  <si>
+    <t>c_isenburg</t>
+  </si>
+  <si>
+    <t>d_schleswig</t>
+  </si>
+  <si>
+    <t>c_itzehoe</t>
+  </si>
+  <si>
+    <t>c_katzenelnbogen</t>
+  </si>
+  <si>
+    <t>c_falkenstein</t>
+  </si>
+  <si>
+    <t>c_speyer</t>
+  </si>
+  <si>
+    <t>c_fulda</t>
+  </si>
+  <si>
+    <t>d_hessen</t>
+  </si>
+  <si>
+    <t>c_waldeck</t>
+  </si>
+  <si>
+    <t>c_westergo</t>
+  </si>
+  <si>
+    <t>city_succession_law</t>
+  </si>
+  <si>
+    <t>c_delfzijl</t>
+  </si>
+  <si>
+    <t>c_buren</t>
+  </si>
+  <si>
+    <t>high_partition_succession_law;male_preference_law</t>
+  </si>
+  <si>
+    <t>c_horn</t>
+  </si>
+  <si>
+    <t>c_vianden</t>
+  </si>
+  <si>
+    <t>c_salm</t>
+  </si>
+  <si>
+    <t>c_bregenz</t>
+  </si>
+  <si>
+    <t>c_freundsberg</t>
+  </si>
+  <si>
+    <t>c_trento</t>
+  </si>
+  <si>
+    <t>c_brixen</t>
+  </si>
+  <si>
+    <t>c_berchtesgaden</t>
+  </si>
+  <si>
+    <t>c_bamberg</t>
+  </si>
+  <si>
+    <t>c_gorz</t>
+  </si>
+  <si>
+    <t>(110, 78, 55)</t>
+  </si>
+  <si>
+    <t>CKU_griffin_31</t>
+  </si>
+  <si>
+    <t>CKU_griffin_9</t>
+  </si>
+  <si>
+    <t>(106, 251, 63)</t>
+  </si>
+  <si>
+    <t>c_sankt_lambrecht</t>
+  </si>
+  <si>
+    <t>c_admont</t>
+  </si>
+  <si>
+    <t>c_seckau</t>
+  </si>
+  <si>
+    <t>c_lilienfeld</t>
+  </si>
+  <si>
+    <t>c_saint_polten</t>
+  </si>
+  <si>
+    <t>c_zwettl</t>
+  </si>
+  <si>
+    <t>c_vorau</t>
+  </si>
+  <si>
+    <t>c_herrenchiemsee</t>
+  </si>
+  <si>
+    <t>c_haag</t>
+  </si>
+  <si>
+    <t>c_breitenegg</t>
+  </si>
+  <si>
+    <t>c_eichstatt</t>
+  </si>
+  <si>
+    <t>c_oettingen</t>
+  </si>
+  <si>
+    <t>c_leuchtenberg</t>
+  </si>
+  <si>
+    <t>c_kulmbach</t>
+  </si>
+  <si>
+    <t>c_ansbach</t>
+  </si>
+  <si>
+    <t>c_castell</t>
+  </si>
+  <si>
+    <t>c_rieneck</t>
+  </si>
+  <si>
+    <t>c_tarentesa</t>
+  </si>
+  <si>
+    <t>c_henneberg</t>
+  </si>
+  <si>
+    <t>c_schwarzburg</t>
+  </si>
+  <si>
+    <t>c_quedlinburg</t>
+  </si>
+  <si>
+    <t>bishop_theocratic_succession_law;female_only_law</t>
+  </si>
+  <si>
+    <t>c_meissen</t>
+  </si>
+  <si>
+    <t>c_reuss</t>
+  </si>
+  <si>
+    <t>c_anhalt</t>
+  </si>
+  <si>
+    <t>c_merseburg</t>
+  </si>
+  <si>
+    <t>c_naumburg</t>
+  </si>
+  <si>
+    <t>c_halberstadt</t>
+  </si>
+  <si>
+    <t>c_havelberg</t>
+  </si>
+  <si>
+    <t>c_querfurt</t>
+  </si>
+  <si>
+    <t>c_gardelegen</t>
+  </si>
+  <si>
+    <t>c_gleichenstein</t>
+  </si>
+  <si>
+    <t>c_ruppin</t>
+  </si>
+  <si>
+    <t>c_furstenwalde</t>
+  </si>
+  <si>
+    <t>c_brandenburg_an_der_havel</t>
+  </si>
+  <si>
+    <t>c_chorin</t>
+  </si>
+  <si>
+    <t>d_mecklenburg</t>
+  </si>
+  <si>
+    <t>c_neubrandenburg</t>
+  </si>
+  <si>
+    <t>d_luneburg</t>
+  </si>
+  <si>
+    <t>c_gottingen</t>
+  </si>
+  <si>
+    <t>c_braunschweig</t>
+  </si>
+  <si>
+    <t>c_einbeck</t>
+  </si>
+  <si>
+    <t>c_hildesheim</t>
+  </si>
+  <si>
+    <t>c_demmin</t>
+  </si>
+  <si>
+    <t>c_torgelow</t>
+  </si>
+  <si>
+    <t>c_verden</t>
+  </si>
+  <si>
+    <t>c_ratzeburg</t>
+  </si>
+  <si>
+    <t>c_jever</t>
+  </si>
+  <si>
+    <t>c_pyrmont</t>
+  </si>
+  <si>
+    <t>c_sternberk</t>
+  </si>
+  <si>
+    <t>c_cimburk</t>
+  </si>
+  <si>
+    <t>c_prerov</t>
+  </si>
+  <si>
+    <t>c_opava</t>
+  </si>
+  <si>
+    <t>c_krnov</t>
+  </si>
+  <si>
+    <t>c_sumperk</t>
+  </si>
+  <si>
+    <t>c_litomysl</t>
+  </si>
+  <si>
+    <t>c_podebrady</t>
+  </si>
+  <si>
+    <t>c_pernstejn</t>
+  </si>
+  <si>
+    <t>c_pardubice</t>
+  </si>
+  <si>
+    <t>CKU_dube_104</t>
+  </si>
+  <si>
+    <t>c_dobruska</t>
+  </si>
+  <si>
+    <t>c_trutnov</t>
+  </si>
+  <si>
+    <t>c_rozmberk</t>
+  </si>
+  <si>
+    <t>c_vimperk</t>
+  </si>
+  <si>
+    <t>c_konopiste</t>
+  </si>
+  <si>
+    <t>c_mlada_boleslav</t>
+  </si>
+  <si>
+    <t>c_vartenberk</t>
+  </si>
+  <si>
+    <t>c_duba</t>
+  </si>
+  <si>
+    <t>c_usti_nad_labem</t>
+  </si>
+  <si>
+    <t>c_hazmburk</t>
+  </si>
+  <si>
+    <t>c_krasov</t>
+  </si>
+  <si>
+    <t>c_klenova</t>
+  </si>
+  <si>
+    <t>c_kladruby</t>
+  </si>
+  <si>
+    <t>c_storkow</t>
+  </si>
+  <si>
+    <t>c_svamberk</t>
+  </si>
+  <si>
+    <t>c_lipa</t>
+  </si>
+  <si>
+    <t>c_podborany</t>
+  </si>
+  <si>
+    <t>c_stornstein</t>
+  </si>
+  <si>
+    <t>d_augsburg</t>
+  </si>
+  <si>
+    <t>c_celje</t>
+  </si>
+  <si>
+    <t>c_ortenburg</t>
+  </si>
+  <si>
+    <t>c_gruvieres</t>
+  </si>
+  <si>
+    <t>c_nochatel</t>
+  </si>
+  <si>
+    <t>c_friborg</t>
+  </si>
+  <si>
+    <t>c_offenburg</t>
+  </si>
+  <si>
+    <t>c_heilbronn</t>
+  </si>
+  <si>
+    <t>c_konstanz</t>
+  </si>
+  <si>
+    <t>c_lindau</t>
+  </si>
+  <si>
+    <t>c_ravensburg</t>
+  </si>
+  <si>
+    <t>holy_order_succession_law</t>
+  </si>
+  <si>
+    <t>c_bad_mergentheim</t>
+  </si>
+  <si>
+    <t>c_biberach</t>
+  </si>
+  <si>
+    <t>c_ulm</t>
+  </si>
+  <si>
+    <t>c_schwabisch_hall</t>
+  </si>
+  <si>
+    <t>c_hamburg</t>
+  </si>
+  <si>
+    <t>c_soest</t>
+  </si>
+  <si>
+    <t>c_dortmund</t>
+  </si>
+  <si>
+    <t>c_aachen</t>
+  </si>
+  <si>
+    <t>c_corvey</t>
+  </si>
+  <si>
+    <t>c_worms</t>
+  </si>
+  <si>
+    <t>c_frankfurt</t>
+  </si>
+  <si>
+    <t>c_wetzlar</t>
+  </si>
+  <si>
+    <t>c_trieste</t>
+  </si>
+  <si>
+    <t>c_pazin</t>
+  </si>
+  <si>
+    <t>c_kempten</t>
+  </si>
+  <si>
+    <t>c_kaufbeuren</t>
+  </si>
+  <si>
+    <t>c_memmingen</t>
+  </si>
+  <si>
+    <t>c_regensburg</t>
+  </si>
+  <si>
+    <t>c_nurnberg</t>
+  </si>
+  <si>
+    <t>c_rothenburg</t>
+  </si>
+  <si>
+    <t>c_bad_windsheim</t>
+  </si>
+  <si>
+    <t>c_schweinfurt</t>
+  </si>
+  <si>
+    <t>c_eisenstein</t>
+  </si>
+  <si>
+    <t>c_davos</t>
+  </si>
+  <si>
+    <t>c_bechyne</t>
+  </si>
+  <si>
+    <t>c_focegni</t>
+  </si>
+  <si>
+    <t>c_vales</t>
+  </si>
+  <si>
+    <t>c_losena</t>
+  </si>
+  <si>
+    <t>c_bern</t>
+  </si>
+  <si>
+    <t>c_luzern</t>
+  </si>
+  <si>
+    <t>c_zurich</t>
+  </si>
+  <si>
+    <t>c_zug</t>
+  </si>
+  <si>
+    <t>c_schwyz</t>
+  </si>
+  <si>
+    <t>c_uri</t>
+  </si>
+  <si>
+    <t>c_glarus</t>
+  </si>
+  <si>
+    <t>c_chur</t>
+  </si>
+  <si>
+    <t>c_sankt_gallen</t>
+  </si>
+  <si>
+    <t>c_basel</t>
+  </si>
+  <si>
+    <t>c_erfurt</t>
+  </si>
+  <si>
+    <t>c_kamenz</t>
+  </si>
+  <si>
+    <t>c_gorlitz</t>
+  </si>
+  <si>
+    <t>c_zittau</t>
+  </si>
+  <si>
+    <t>c_trebbin</t>
+  </si>
+  <si>
+    <t>c_prignitz</t>
+  </si>
+  <si>
+    <t>c_kyritz</t>
+  </si>
+  <si>
+    <t>c_bautzen</t>
+  </si>
+  <si>
+    <t>c_friesack</t>
+  </si>
+  <si>
+    <t>c_hanover</t>
+  </si>
+  <si>
+    <t>c_dithmarschen</t>
+  </si>
+  <si>
+    <t>c_bremen</t>
+  </si>
+  <si>
+    <t>c_goslar</t>
+  </si>
+  <si>
+    <t>c_nordhausen</t>
+  </si>
+  <si>
+    <t>c_muhlhausen</t>
+  </si>
+  <si>
+    <t>c_lubeck</t>
+  </si>
+  <si>
+    <t>c_gorecht</t>
+  </si>
+  <si>
+    <t>CKU_german_minor_106</t>
+  </si>
+  <si>
+    <t>c_tholey</t>
+  </si>
+  <si>
+    <t>bishop_theocratic_succession_law;male_only_law</t>
+  </si>
+  <si>
+    <t>k_archbishopric_koln</t>
+  </si>
+  <si>
+    <t>k_archbishopric_mainz</t>
+  </si>
+  <si>
+    <t>k_archbishopric_trier</t>
+  </si>
+  <si>
+    <t>k_archbishopric_bremen</t>
+  </si>
+  <si>
+    <t>k_archbishopric_magdeburg</t>
+  </si>
+  <si>
+    <t>k_archbishopric_salzburg</t>
+  </si>
+  <si>
+    <t>d_bishopric_utrecht</t>
+  </si>
+  <si>
+    <t>d_stettin</t>
+  </si>
+  <si>
+    <t>d_pomerania_stettin</t>
+  </si>
+  <si>
+    <t>d_pomerania_stolp</t>
+  </si>
+  <si>
+    <t>d_pomerania_wolgast</t>
+  </si>
+  <si>
+    <t>d_pomerania_barth</t>
+  </si>
+  <si>
+    <t>d_bayern_landshut</t>
+  </si>
+  <si>
+    <t>d_bayern_munich</t>
+  </si>
+  <si>
+    <t>d_bayern_ingolstadt</t>
+  </si>
+  <si>
+    <t>CKU_german_minor_107</t>
+  </si>
+  <si>
+    <t>c_amersfoort</t>
+  </si>
+  <si>
+    <t>(84, 78, 62)</t>
+  </si>
+  <si>
+    <t>(52, 177, 30)</t>
+  </si>
+  <si>
+    <t>CKU_wittelsbach_33</t>
+  </si>
+  <si>
+    <t>c_mosbach</t>
+  </si>
+  <si>
+    <t>c_hohenlohe</t>
+  </si>
+  <si>
+    <t>c_urach</t>
+  </si>
+  <si>
+    <t>CKU_german_minor_70</t>
+  </si>
+  <si>
+    <t>c_donauworth</t>
+  </si>
+  <si>
+    <t>(244, 218, 5)</t>
+  </si>
+  <si>
     <t>CKU_german_minor_8</t>
   </si>
   <si>
-    <t>(56, 185, 17)</t>
-  </si>
-  <si>
-    <t>CKU_egmont_33</t>
-  </si>
-  <si>
-    <t>(122, 146, 21)</t>
-  </si>
-  <si>
-    <t>CKU_buren_19</t>
-  </si>
-  <si>
-    <t>(68, 247, 67)</t>
-  </si>
-  <si>
-    <t>CKU_horne_29</t>
-  </si>
-  <si>
-    <t>(82, 239, 1)</t>
-  </si>
-  <si>
-    <t>CKU_sponheim_78</t>
-  </si>
-  <si>
-    <t>(210, 110, 28)</t>
-  </si>
-  <si>
-    <t>CKU_wittelsbach_42</t>
-  </si>
-  <si>
-    <t>(88, 90, 62)</t>
-  </si>
-  <si>
-    <t>CKU_ardenne_luxembourg_37</t>
-  </si>
-  <si>
-    <t>(188, 224, 62)</t>
-  </si>
-  <si>
-    <t>CKU_tubingen_82</t>
-  </si>
-  <si>
-    <t>CKU_tubingen_96</t>
-  </si>
-  <si>
-    <t>(88, 146, 74)</t>
-  </si>
-  <si>
-    <t>(64, 86, 49)</t>
-  </si>
-  <si>
-    <t>CKU_freundsberg_15</t>
-  </si>
-  <si>
-    <t>(247, 185, 45)</t>
-  </si>
-  <si>
-    <t>CKU_german_minor_11</t>
-  </si>
-  <si>
-    <t>(133, 215, 55)</t>
-  </si>
-  <si>
-    <t>CKU_german_minor_12</t>
-  </si>
-  <si>
-    <t>(115, 160, 47)</t>
-  </si>
-  <si>
-    <t>CKU_german_minor_13</t>
-  </si>
-  <si>
-    <t>(54, 56, 66)</t>
-  </si>
-  <si>
-    <t>CKU_german_minor_14</t>
-  </si>
-  <si>
-    <t>CKU_gorizia_27</t>
-  </si>
-  <si>
-    <t>(170, 101, 51)</t>
-  </si>
-  <si>
-    <t>(233, 251, 11)</t>
-  </si>
-  <si>
-    <t>CKU_german_minor_15</t>
-  </si>
-  <si>
-    <t>(179, 75, 19)</t>
-  </si>
-  <si>
-    <t>CKU_german_minor_16</t>
-  </si>
-  <si>
-    <t>(96, 195, 64)</t>
-  </si>
-  <si>
-    <t>CKU_german_minor_17</t>
-  </si>
-  <si>
-    <t>(57, 90, 8)</t>
-  </si>
-  <si>
-    <t>CKU_german_minor_18</t>
-  </si>
-  <si>
-    <t>(158, 104, 44)</t>
-  </si>
-  <si>
-    <t>CKU_german_minor_19</t>
-  </si>
-  <si>
-    <t>(50, 188, 69)</t>
-  </si>
-  <si>
-    <t>CKU_german_minor_20</t>
-  </si>
-  <si>
-    <t>(70, 166, 22)</t>
-  </si>
-  <si>
-    <t>CKU_german_minor_21</t>
-  </si>
-  <si>
-    <t>(75, 75, 46)</t>
-  </si>
-  <si>
-    <t>CKU_german_minor_22</t>
-  </si>
-  <si>
-    <t>(182, 115, 32)</t>
-  </si>
-  <si>
-    <t>CKU_german_minor_23</t>
-  </si>
-  <si>
-    <t>(99, 255, 4)</t>
-  </si>
-  <si>
-    <t>CKU_kuenring_17</t>
-  </si>
-  <si>
-    <t>(0, 206, 110)</t>
-  </si>
-  <si>
-    <t>CKU_liechtenstein_31</t>
-  </si>
-  <si>
-    <t>(192, 168, 64)</t>
-  </si>
-  <si>
-    <t>CKU_german_minor_24</t>
-  </si>
-  <si>
-    <t>(219, 105, 105)</t>
-  </si>
-  <si>
-    <t>CKU_german_minor_25</t>
-  </si>
-  <si>
-    <t>(211, 133, 55)</t>
-  </si>
-  <si>
-    <t>CKU_german_minor_26</t>
-  </si>
-  <si>
-    <t>(219, 59, 14)</t>
-  </si>
-  <si>
-    <t>CKU_fraunberg_20</t>
-  </si>
-  <si>
-    <t>(198, 168, 7)</t>
-  </si>
-  <si>
-    <t>CKU_german_minor_27</t>
-  </si>
-  <si>
-    <t>(222, 121, 63)</t>
-  </si>
-  <si>
-    <t>CKU_laber_13</t>
-  </si>
-  <si>
-    <t>(96, 178, 49)</t>
-  </si>
-  <si>
-    <t>CKU_rechberg_55</t>
-  </si>
-  <si>
-    <t>(239, 164, 49)</t>
-  </si>
-  <si>
-    <t>CKU_oettingen_31</t>
-  </si>
-  <si>
-    <t>(149, 161, 39)</t>
-  </si>
-  <si>
-    <t>CKU_leuchtenberg_24</t>
-  </si>
-  <si>
-    <t>(251, 180, 34)</t>
-  </si>
-  <si>
-    <t>CKU_hohenzollern_10</t>
-  </si>
-  <si>
-    <t>(73, 169, 75)</t>
-  </si>
-  <si>
-    <t>(144, 178, 6)</t>
-  </si>
-  <si>
-    <t>CKU_hohenzollern_15</t>
-  </si>
-  <si>
-    <t>CKU_hohenzollern_14</t>
-  </si>
-  <si>
-    <t>(122, 136, 0)</t>
-  </si>
-  <si>
-    <t>CKU_wettin_6</t>
-  </si>
-  <si>
-    <t>(94, 146, 56)</t>
-  </si>
-  <si>
-    <t>CKU_castell_12</t>
-  </si>
-  <si>
-    <t>(63, 94, 50)</t>
-  </si>
-  <si>
-    <t>CKU_limpurg_15</t>
-  </si>
-  <si>
-    <t>(58, 255, 45)</t>
-  </si>
-  <si>
-    <t>(81, 179, 2)</t>
-  </si>
-  <si>
-    <t>CKU_loon_17</t>
-  </si>
-  <si>
-    <t>CKU_francien_minor_78</t>
-  </si>
-  <si>
-    <t>(180, 195, 22)</t>
-  </si>
-  <si>
-    <t>CKU_henneberg_58</t>
-  </si>
-  <si>
-    <t>(175, 182, 50)</t>
-  </si>
-  <si>
-    <t>CKU_schwarzburg_63</t>
-  </si>
-  <si>
-    <t>(50, 182, 48)</t>
-  </si>
-  <si>
-    <t>(133, 249, 32)</t>
-  </si>
-  <si>
-    <t>CKU_schwarzburg_68</t>
-  </si>
-  <si>
-    <t>CKU_beichlingen_19</t>
-  </si>
-  <si>
-    <t>(194, 196, 71)</t>
-  </si>
-  <si>
-    <t>CKU_reuss_64</t>
-  </si>
-  <si>
-    <t>(59, 202, 45)</t>
-  </si>
-  <si>
-    <t>CKU_reuss_65</t>
-  </si>
-  <si>
-    <t>(90, 81, 38)</t>
-  </si>
-  <si>
-    <t>CKU_reuss_78</t>
-  </si>
-  <si>
-    <t>(192, 87, 62)</t>
-  </si>
-  <si>
-    <t>CKU_askanier_45</t>
-  </si>
-  <si>
-    <t>(124, 244, 68)</t>
-  </si>
-  <si>
-    <t>CKU_askanier_20</t>
-  </si>
-  <si>
-    <t>(205, 73, 70)</t>
-  </si>
-  <si>
-    <t>CKU_german_minor_29</t>
-  </si>
-  <si>
-    <t>(62, 244, 74)</t>
-  </si>
-  <si>
-    <t>CKU_german_minor_30</t>
-  </si>
-  <si>
-    <t>(169, 182, 53)</t>
-  </si>
-  <si>
-    <t>CKU_german_minor_31</t>
-  </si>
-  <si>
-    <t>CKU_querfurt_41</t>
-  </si>
-  <si>
-    <t>(254, 88, 33)</t>
-  </si>
-  <si>
-    <t>(68, 74, 67)</t>
-  </si>
-  <si>
-    <t>CKU_german_minor_32</t>
-  </si>
-  <si>
-    <t>(185, 140, 65)</t>
-  </si>
-  <si>
-    <t>CKU_savoy_10</t>
-  </si>
-  <si>
-    <t>(71, 201, 58)</t>
-  </si>
-  <si>
-    <t>CKU_alvensleben_33</t>
-  </si>
-  <si>
-    <t>(226, 143, 64)</t>
-  </si>
-  <si>
-    <t>CKU_bodenhausen_9</t>
-  </si>
-  <si>
-    <t>(183, 165, 21)</t>
-  </si>
-  <si>
-    <t>CKU_german_minor_33</t>
-  </si>
-  <si>
-    <t>CKU_german_minor_34</t>
-  </si>
-  <si>
-    <t>(121, 186, 40)</t>
-  </si>
-  <si>
-    <t>CKU_arnstein_25</t>
-  </si>
-  <si>
-    <t>(231, 53, 38)</t>
-  </si>
-  <si>
-    <t>CKU_german_minor_35</t>
-  </si>
-  <si>
-    <t>(234, 242, 46)</t>
-  </si>
-  <si>
-    <t>CKU_german_minor_36</t>
-  </si>
-  <si>
     <t>(197, 177, 20)</t>
   </si>
   <si>
-    <t>CKU_mecklenburg_4</t>
-  </si>
-  <si>
-    <t>(140, 209, 17)</t>
-  </si>
-  <si>
-    <t>CKU_mecklenburg_18</t>
-  </si>
-  <si>
-    <t>(176, 115, 41)</t>
-  </si>
-  <si>
-    <t>CKU_welf_76</t>
-  </si>
-  <si>
-    <t>(170, 233, 30)</t>
-  </si>
-  <si>
-    <t>CKU_welf_89</t>
-  </si>
-  <si>
-    <t>(159, 71, 22)</t>
-  </si>
-  <si>
-    <t>CKU_welf_100</t>
-  </si>
-  <si>
-    <t>CKU_welf_85</t>
-  </si>
-  <si>
-    <t>(76, 238, 5)</t>
-  </si>
-  <si>
-    <t>(86, 187, 12)</t>
-  </si>
-  <si>
-    <t>CKU_askanier_59</t>
-  </si>
-  <si>
-    <t>(216, 196, 51)</t>
-  </si>
-  <si>
-    <t>CKU_griffin_36</t>
-  </si>
-  <si>
-    <t>(246, 183, 35)</t>
-  </si>
-  <si>
-    <t>CKU_griffin_21</t>
-  </si>
-  <si>
-    <t>(250, 148, 44)</t>
-  </si>
-  <si>
-    <t>CKU_griffin_20</t>
-  </si>
-  <si>
-    <t>(227, 176, 68)</t>
-  </si>
-  <si>
-    <t>CKU_german_minor_37</t>
-  </si>
-  <si>
-    <t>(114, 236, 52)</t>
-  </si>
-  <si>
-    <t>CKU_schwalenberg_15</t>
-  </si>
-  <si>
-    <t>(61, 180, 49)</t>
-  </si>
-  <si>
-    <t>CKU_german_minor_38</t>
-  </si>
-  <si>
-    <t>(209, 183, 8)</t>
-  </si>
-  <si>
-    <t>CKU_german_minor_39</t>
-  </si>
-  <si>
-    <t>(97, 179, 45)</t>
-  </si>
-  <si>
-    <t>CKU_german_minor_40</t>
-  </si>
-  <si>
-    <t>(239, 254, 30)</t>
-  </si>
-  <si>
-    <t>CKU_german_minor_41</t>
-  </si>
-  <si>
-    <t>(253, 228, 64)</t>
-  </si>
-  <si>
-    <t>CKU_benesovici_14</t>
-  </si>
-  <si>
-    <t>(209, 138, 38)</t>
-  </si>
-  <si>
-    <t>CKU_holstejn_12</t>
-  </si>
-  <si>
-    <t>(220, 91, 3)</t>
-  </si>
-  <si>
-    <t>CKU_zerotina_10</t>
-  </si>
-  <si>
-    <t>(114, 226, 71)</t>
-  </si>
-  <si>
-    <t>CKU_premyslid_14</t>
-  </si>
-  <si>
-    <t>(225, 92, 41)</t>
-  </si>
-  <si>
-    <t>CKU_premyslid_4</t>
-  </si>
-  <si>
-    <t>(137, 99, 38)</t>
-  </si>
-  <si>
-    <t>CKU_tunkl_2</t>
-  </si>
-  <si>
-    <t>(50, 188, 53)</t>
-  </si>
-  <si>
-    <t>CKU_czech_minor_1</t>
-  </si>
-  <si>
-    <t>(217, 86, 58)</t>
-  </si>
-  <si>
-    <t>CKU_podebrad_32</t>
-  </si>
-  <si>
-    <t>(56, 107, 65)</t>
-  </si>
-  <si>
-    <t>CKU_pernstejn_7</t>
-  </si>
-  <si>
-    <t>(140, 235, 24)</t>
-  </si>
-  <si>
-    <t>(76, 57, 9)</t>
-  </si>
-  <si>
-    <t>CKU_czech_minor_2</t>
-  </si>
-  <si>
-    <t>CKU_berka_7</t>
-  </si>
-  <si>
-    <t>(135, 253, 28)</t>
-  </si>
-  <si>
-    <t>CKU_czech_minor_3</t>
-  </si>
-  <si>
-    <t>(210, 190, 56)</t>
-  </si>
-  <si>
-    <t>CKU_rozmberka_15</t>
-  </si>
-  <si>
-    <t>(128, 119, 58)</t>
-  </si>
-  <si>
-    <t>CKU_kaplirove_ze_sulevic_13</t>
-  </si>
-  <si>
-    <t>(75, 102, 8)</t>
-  </si>
-  <si>
-    <t>CKU_sternberka_33</t>
-  </si>
-  <si>
-    <t>(93, 138, 9)</t>
-  </si>
-  <si>
-    <t>CKU_markvartici_24</t>
-  </si>
-  <si>
-    <t>(157, 110, 48)</t>
-  </si>
-  <si>
-    <t>CKU_markvartici_110</t>
-  </si>
-  <si>
-    <t>(238, 57, 15)</t>
-  </si>
-  <si>
-    <t>CKU_dube_135</t>
-  </si>
-  <si>
-    <t>(240, 140, 42)</t>
-  </si>
-  <si>
-    <t>CKU_vresovice_1</t>
-  </si>
-  <si>
-    <t>(254, 96, 22)</t>
-  </si>
-  <si>
-    <t>(98, 144, 34)</t>
-  </si>
-  <si>
-    <t>CKU_hazmburka_9</t>
-  </si>
-  <si>
-    <t>CKU_kolovrat_8</t>
-  </si>
-  <si>
-    <t>(231, 226, 16)</t>
-  </si>
-  <si>
-    <t>CKU_czech_minor_4</t>
-  </si>
-  <si>
-    <t>(228, 88, 51)</t>
-  </si>
-  <si>
-    <t>CKU_czech_minor_5</t>
-  </si>
-  <si>
-    <t>(130, 108, 62)</t>
-  </si>
-  <si>
-    <t>CKU_svamberk_4</t>
-  </si>
-  <si>
-    <t>(172, 193, 30)</t>
-  </si>
-  <si>
-    <t>CKU_lipe_15</t>
-  </si>
-  <si>
-    <t>(95, 201, 6)</t>
-  </si>
-  <si>
-    <t>CKU_gutstejna_38</t>
-  </si>
-  <si>
-    <t>(229, 178, 59)</t>
-  </si>
-  <si>
-    <t>CKU_gutstejna_15</t>
-  </si>
-  <si>
-    <t>(139, 162, 4)</t>
-  </si>
-  <si>
-    <t>(228, 74, 52)</t>
-  </si>
-  <si>
-    <t>CKU_schaumburg_17</t>
-  </si>
-  <si>
-    <t>e_hre</t>
-  </si>
-  <si>
-    <t>d_lorraine</t>
-  </si>
-  <si>
-    <t>k_denmark</t>
-  </si>
-  <si>
-    <t>d_gelre</t>
-  </si>
-  <si>
-    <t>d_liege</t>
-  </si>
-  <si>
-    <t>d_tirol</t>
-  </si>
-  <si>
-    <t>d_salzburg</t>
-  </si>
-  <si>
-    <t>d_wurzburg</t>
-  </si>
-  <si>
-    <t>d_savoue</t>
-  </si>
-  <si>
-    <t>d_sachsen</t>
-  </si>
-  <si>
-    <t>d_brandenburg</t>
-  </si>
-  <si>
-    <t>k_cechy</t>
-  </si>
-  <si>
-    <t>d_pomerania</t>
-  </si>
-  <si>
-    <t>d_morava</t>
-  </si>
-  <si>
-    <t>(148, 131, 28)</t>
-  </si>
-  <si>
-    <t>CKU_german_minor_42</t>
-  </si>
-  <si>
-    <t>CKU_german_minor_43</t>
-  </si>
-  <si>
-    <t>CKU_german_minor_44</t>
-  </si>
-  <si>
-    <t>CKU_german_minor_45</t>
-  </si>
-  <si>
-    <t>CKU_german_minor_46</t>
-  </si>
-  <si>
-    <t>CKU_german_minor_47</t>
-  </si>
-  <si>
-    <t>CKU_german_minor_48</t>
-  </si>
-  <si>
-    <t>CKU_german_minor_49</t>
-  </si>
-  <si>
-    <t>CKU_german_minor_50</t>
-  </si>
-  <si>
-    <t>CKU_german_minor_51</t>
-  </si>
-  <si>
-    <t>CKU_german_minor_52</t>
-  </si>
-  <si>
-    <t>CKU_german_minor_53</t>
-  </si>
-  <si>
-    <t>CKU_german_minor_54</t>
-  </si>
-  <si>
-    <t>CKU_german_minor_55</t>
-  </si>
-  <si>
-    <t>(200, 134, 21)</t>
-  </si>
-  <si>
-    <t>(160, 162, 5)</t>
-  </si>
-  <si>
-    <t>(127, 178, 14)</t>
-  </si>
-  <si>
-    <t>(200, 252, 26)</t>
-  </si>
-  <si>
-    <t>(160, 66, 189)</t>
-  </si>
-  <si>
-    <t>(147, 254, 26)</t>
-  </si>
-  <si>
-    <t>(114, 167, 143)</t>
-  </si>
-  <si>
-    <t>(206, 201, 61)</t>
-  </si>
-  <si>
-    <t>(120, 132, 26)</t>
-  </si>
-  <si>
-    <t>(250, 173, 70)</t>
-  </si>
-  <si>
-    <t>(64, 181, 8)</t>
-  </si>
-  <si>
-    <t>(175, 194, 5)</t>
-  </si>
-  <si>
-    <t>(99, 253, 54)</t>
-  </si>
-  <si>
-    <t>CKU_german_minor_56</t>
-  </si>
-  <si>
-    <t>CKU_german_minor_57</t>
-  </si>
-  <si>
-    <t>CKU_german_minor_58</t>
-  </si>
-  <si>
-    <t>(151, 193, 70)</t>
-  </si>
-  <si>
-    <t>(194, 181, 13)</t>
-  </si>
-  <si>
-    <t>(117, 121, 71)</t>
-  </si>
-  <si>
-    <t>CKU_german_minor_59</t>
-  </si>
-  <si>
-    <t>(174, 252, 21)</t>
-  </si>
-  <si>
-    <t>CKU_german_minor_60</t>
-  </si>
-  <si>
-    <t>(165, 208, 73)</t>
-  </si>
-  <si>
-    <t>CKU_german_minor_61</t>
-  </si>
-  <si>
-    <t>(65, 91, 31)</t>
-  </si>
-  <si>
-    <t>CKU_german_minor_62</t>
-  </si>
-  <si>
-    <t>CKU_german_minor_63</t>
-  </si>
-  <si>
-    <t>CKU_german_minor_64</t>
-  </si>
-  <si>
-    <t>CKU_german_minor_65</t>
-  </si>
-  <si>
-    <t>CKU_german_minor_66</t>
-  </si>
-  <si>
-    <t>CKU_german_minor_67</t>
-  </si>
-  <si>
-    <t>CKU_german_minor_68</t>
-  </si>
-  <si>
-    <t>CKU_german_minor_69</t>
-  </si>
-  <si>
-    <t>CKU_german_minor_70</t>
-  </si>
-  <si>
-    <t>CKU_german_minor_71</t>
-  </si>
-  <si>
-    <t>CKU_german_minor_72</t>
-  </si>
-  <si>
-    <t>CKU_german_minor_73</t>
-  </si>
-  <si>
-    <t>CKU_german_minor_74</t>
-  </si>
-  <si>
-    <t>(171, 84, 27)</t>
-  </si>
-  <si>
-    <t>(224, 168, 0)</t>
-  </si>
-  <si>
-    <t>(234, 120, 7)</t>
-  </si>
-  <si>
-    <t>(72, 62, 69)</t>
-  </si>
-  <si>
-    <t>(198, 160, 48)</t>
-  </si>
-  <si>
-    <t>(107, 182, 7)</t>
-  </si>
-  <si>
-    <t>(69, 197, 67)</t>
-  </si>
-  <si>
-    <t>(139, 235, 69)</t>
-  </si>
-  <si>
-    <t>(238, 83, 54)</t>
-  </si>
-  <si>
-    <t>(102, 55, 67)</t>
-  </si>
-  <si>
-    <t>(161, 200, 27)</t>
-  </si>
-  <si>
-    <t>(158, 95, 40)</t>
-  </si>
-  <si>
-    <t>(60, 127, 18)</t>
-  </si>
-  <si>
-    <t>CKU_german_minor_75</t>
-  </si>
-  <si>
-    <t>(179, 71, 64)</t>
-  </si>
-  <si>
-    <t>CKU_german_minor_76</t>
-  </si>
-  <si>
-    <t>(248, 0, 0)</t>
-  </si>
-  <si>
-    <t>CKU_german_minor_77</t>
-  </si>
-  <si>
-    <t>(110, 202, 56)</t>
-  </si>
-  <si>
-    <t>CKU_german_minor_78</t>
-  </si>
-  <si>
-    <t>(53, 199, 139)</t>
-  </si>
-  <si>
-    <t>CKU_celje_8</t>
-  </si>
-  <si>
-    <t>(164, 122, 47)</t>
-  </si>
-  <si>
-    <t>CKU_celje_18</t>
-  </si>
-  <si>
-    <t>(172, 73, 6)</t>
-  </si>
-  <si>
-    <t>CKU_gruyere_24</t>
-  </si>
-  <si>
-    <t>(123, 147, 12)</t>
-  </si>
-  <si>
-    <t>CKU_german_minor_28</t>
-  </si>
-  <si>
-    <t>(155, 202, 10)</t>
-  </si>
-  <si>
-    <t>(95, 109, 73)</t>
-  </si>
-  <si>
-    <t>CKU_german_minor_79</t>
-  </si>
-  <si>
-    <t>(237, 30, 239)</t>
-  </si>
-  <si>
-    <t>CKU_german_minor_80</t>
-  </si>
-  <si>
-    <t>(90, 197, 46)</t>
-  </si>
-  <si>
-    <t>CKU_german_minor_81</t>
-  </si>
-  <si>
-    <t>(151, 72, 39)</t>
-  </si>
-  <si>
-    <t>CKU_german_minor_82</t>
-  </si>
-  <si>
-    <t>(67, 244, 21)</t>
-  </si>
-  <si>
-    <t>CKU_german_minor_83</t>
-  </si>
-  <si>
-    <t>(128, 75, 19)</t>
-  </si>
-  <si>
-    <t>CKU_german_minor_84</t>
-  </si>
-  <si>
-    <t>(208, 60, 66)</t>
-  </si>
-  <si>
-    <t>CKU_german_minor_85</t>
-  </si>
-  <si>
-    <t>(141, 148, 1)</t>
-  </si>
-  <si>
-    <t>CKU_german_minor_86</t>
-  </si>
-  <si>
-    <t>(68, 227, 184)</t>
-  </si>
-  <si>
-    <t>CKU_german_minor_87</t>
-  </si>
-  <si>
-    <t>(157, 71, 69)</t>
-  </si>
-  <si>
-    <t>CKU_german_minor_88</t>
-  </si>
-  <si>
-    <t>(135, 205, 38)</t>
-  </si>
-  <si>
-    <t>CKU_urach_2</t>
-  </si>
-  <si>
-    <t>(213, 231, 23)</t>
-  </si>
-  <si>
-    <t>CKU_german_minor_89</t>
-  </si>
-  <si>
-    <t>(137, 223, 36)</t>
-  </si>
-  <si>
-    <t>CKU_german_minor_90</t>
-  </si>
-  <si>
-    <t>CKU_german_minor_91</t>
-  </si>
-  <si>
-    <t>CKU_german_minor_92</t>
-  </si>
-  <si>
-    <t>(134, 52, 52)</t>
-  </si>
-  <si>
-    <t>(136, 124, 10)</t>
-  </si>
-  <si>
-    <t>(71, 211, 67)</t>
-  </si>
-  <si>
-    <t>CKU_german_minor_93</t>
-  </si>
-  <si>
-    <t>CKU_german_minor_94</t>
-  </si>
-  <si>
-    <t>CKU_german_minor_95</t>
-  </si>
-  <si>
-    <t>CKU_german_minor_96</t>
-  </si>
-  <si>
-    <t>(145, 216, 25)</t>
-  </si>
-  <si>
-    <t>(244, 201, 66)</t>
-  </si>
-  <si>
-    <t>(60, 148, 39)</t>
-  </si>
-  <si>
-    <t>(51, 164, 40)</t>
-  </si>
-  <si>
-    <t>CKU_czech_minor_6</t>
-  </si>
-  <si>
-    <t>(77, 251, 59)</t>
-  </si>
-  <si>
-    <t>CKU_german_minor_97</t>
-  </si>
-  <si>
-    <t>(162, 207, 3)</t>
-  </si>
-  <si>
-    <t>CKU_german_minor_98</t>
-  </si>
-  <si>
-    <t>CKU_german_minor_99</t>
-  </si>
-  <si>
-    <t>(81, 73, 53)</t>
-  </si>
-  <si>
-    <t>(93, 236, 24)</t>
-  </si>
-  <si>
-    <t>d_bremen</t>
-  </si>
-  <si>
-    <t>CKU_german_minor_100</t>
-  </si>
-  <si>
-    <t>(151, 91, 1)</t>
-  </si>
-  <si>
-    <t>CKU_german_minor_101</t>
-  </si>
-  <si>
-    <t>(157, 122, 67)</t>
-  </si>
-  <si>
-    <t>CKU_german_minor_102</t>
-  </si>
-  <si>
-    <t>(186, 73, 11)</t>
-  </si>
-  <si>
-    <t>CKU_german_minor_103</t>
-  </si>
-  <si>
-    <t>(206, 242, 9)</t>
-  </si>
-  <si>
-    <t>CKU_german_minor_104</t>
-  </si>
-  <si>
-    <t>(198, 202, 39)</t>
-  </si>
-  <si>
-    <t>d_westfalen</t>
-  </si>
-  <si>
-    <t>d_oversticht</t>
-  </si>
-  <si>
-    <t>CKU_german_minor_105</t>
-  </si>
-  <si>
-    <t>(128, 239, 70)</t>
-  </si>
-  <si>
-    <t>Liege Title</t>
+    <t>c_garsten</t>
+  </si>
+  <si>
+    <t>d_bishopric_passau</t>
   </si>
 </sst>
 </file>
@@ -1698,9 +2292,349 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="39">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1765,7 +2699,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2061,212 +2995,220 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{400C5842-DB98-492E-993D-80D39F62EB82}">
-  <dimension ref="A1:BD234"/>
+  <dimension ref="A1:BF225"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="N167" sqref="N167"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="45.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="5.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:58" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="H1" t="s">
+        <v>497</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="K1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="R1" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="S1" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="T1" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="U1" t="s">
         <v>13</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="V1" t="s">
         <v>14</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="W1" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="X1" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="Y1" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Z1" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AA1" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AB1" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AC1" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AD1" t="s">
         <v>24</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AE1" t="s">
         <v>25</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AF1" t="s">
         <v>26</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AG1" t="s">
         <v>27</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AH1" t="s">
         <v>28</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AI1" t="s">
         <v>29</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AJ1" t="s">
         <v>30</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AK1" t="s">
         <v>31</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AL1" t="s">
         <v>32</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AM1" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AN1" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AO1" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AP1" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AQ1" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AR1" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AS1" t="s">
         <v>41</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AT1" t="s">
         <v>42</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AU1" t="s">
         <v>43</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AV1" t="s">
         <v>44</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AW1" t="s">
         <v>45</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="AX1" t="s">
         <v>46</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="AY1" t="s">
         <v>47</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="AZ1" t="s">
         <v>48</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="BA1" t="s">
         <v>49</v>
       </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="BB1" t="s">
         <v>50</v>
       </c>
-      <c r="BA1" s="2" t="s">
+      <c r="BC1" t="s">
         <v>51</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BD1" t="s">
         <v>52</v>
       </c>
-      <c r="BC1" s="2" t="s">
+      <c r="BE1" t="s">
         <v>53</v>
       </c>
-      <c r="BD1" s="2" t="s">
+      <c r="BF1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>56</v>
       </c>
@@ -2277,10 +3219,16 @@
         <v>22</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="3" spans="1:56" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="3" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>58</v>
       </c>
@@ -2295,10 +3243,16 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="4" spans="1:56" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="4" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>60</v>
       </c>
@@ -2313,8 +3267,14 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="I4" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="5" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>63</v>
       </c>
@@ -2326,10 +3286,16 @@
         <v>22</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="6" spans="1:56" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="6" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>64</v>
       </c>
@@ -2344,10 +3310,16 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="7" spans="1:56" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="7" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>66</v>
       </c>
@@ -2362,10 +3334,16 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="8" spans="1:56" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="8" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>68</v>
       </c>
@@ -2380,10 +3358,16 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="9" spans="1:56" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="9" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>70</v>
       </c>
@@ -2398,10 +3382,16 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="10" spans="1:56" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="10" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>72</v>
       </c>
@@ -2416,10 +3406,16 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="11" spans="1:56" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="11" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>74</v>
       </c>
@@ -2434,10 +3430,16 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="12" spans="1:56" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="12" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>76</v>
       </c>
@@ -2452,10 +3454,16 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="13" spans="1:56" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="13" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>78</v>
       </c>
@@ -2470,10 +3478,16 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="14" spans="1:56" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="14" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>80</v>
       </c>
@@ -2488,10 +3502,16 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="15" spans="1:56" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="15" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>82</v>
       </c>
@@ -2506,10 +3526,16 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="16" spans="1:56" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="16" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>84</v>
       </c>
@@ -2524,10 +3550,16 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>86</v>
       </c>
@@ -2542,10 +3574,16 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>88</v>
       </c>
@@ -2560,10 +3598,16 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>90</v>
       </c>
@@ -2578,10 +3622,16 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>92</v>
       </c>
@@ -2596,10 +3646,16 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>94</v>
       </c>
@@ -2614,10 +3670,16 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>96</v>
       </c>
@@ -2632,10 +3694,16 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>98</v>
       </c>
@@ -2650,10 +3718,16 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>100</v>
       </c>
@@ -2668,15 +3742,21 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
@@ -2686,15 +3766,21 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
@@ -2704,10 +3790,16 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>106</v>
       </c>
@@ -2722,10 +3814,16 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>108</v>
       </c>
@@ -2740,15 +3838,21 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
@@ -2758,12 +3862,18 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>112</v>
@@ -2776,12 +3886,18 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>114</v>
@@ -2794,15 +3910,21 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
@@ -2812,10 +3934,16 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>118</v>
       </c>
@@ -2830,10 +3958,16 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>120</v>
       </c>
@@ -2848,10 +3982,16 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>122</v>
       </c>
@@ -2866,10 +4006,16 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>124</v>
       </c>
@@ -2884,10 +4030,16 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>126</v>
       </c>
@@ -2902,10 +4054,16 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>128</v>
       </c>
@@ -2920,10 +4078,16 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>130</v>
       </c>
@@ -2938,10 +4102,16 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>132</v>
       </c>
@@ -2956,10 +4126,16 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>134</v>
       </c>
@@ -2974,15 +4150,21 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1" t="s">
@@ -2992,15 +4174,21 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1" t="s">
@@ -3010,15 +4198,21 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1" t="s">
@@ -3028,15 +4222,21 @@
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1" t="s">
@@ -3046,15 +4246,21 @@
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1" t="s">
@@ -3064,15 +4270,21 @@
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1" t="s">
@@ -3082,12 +4294,18 @@
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>148</v>
+        <v>348</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A48" s="1">
+        <v>10003557</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>149</v>
@@ -3100,10 +4318,16 @@
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>150</v>
       </c>
@@ -3118,10 +4342,17 @@
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="L49" s="1"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>152</v>
       </c>
@@ -3136,10 +4367,16 @@
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>154</v>
       </c>
@@ -3154,15 +4391,21 @@
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
-        <v>10003557</v>
+        <v>348</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1" t="s">
@@ -3172,15 +4415,22 @@
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+        <v>351</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="N52" s="1"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1" t="s">
@@ -3190,16 +4440,21 @@
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="J53" s="1"/>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1" t="s">
@@ -3209,15 +4464,22 @@
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="O54" s="1"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1" t="s">
@@ -3227,15 +4489,21 @@
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1" t="s">
@@ -3245,15 +4513,21 @@
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1" t="s">
@@ -3263,16 +4537,22 @@
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="L57" s="1"/>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="O57" s="1"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1" t="s">
@@ -3282,15 +4562,22 @@
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="O58" s="1"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1" t="s">
@@ -3300,16 +4587,21 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="M59" s="1"/>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1" t="s">
@@ -3319,15 +4611,22 @@
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="N60" s="1"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1" t="s">
@@ -3337,12 +4636,19 @@
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="N61" s="1"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>177</v>
@@ -3355,16 +4661,21 @@
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="M62" s="1"/>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1" t="s">
@@ -3374,16 +4685,22 @@
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="J63" s="1"/>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="N63" s="1"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1" t="s">
@@ -3393,16 +4710,21 @@
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="M64" s="1"/>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1" t="s">
@@ -3412,15 +4734,21 @@
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="1" t="s">
@@ -3430,16 +4758,21 @@
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="L66" s="1"/>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1" t="s">
@@ -3449,11 +4782,18 @@
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="M67" s="1"/>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="L67" s="1"/>
+      <c r="P67" s="1"/>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>188</v>
       </c>
@@ -3468,16 +4808,21 @@
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="L68" s="1"/>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1" t="s">
@@ -3487,15 +4832,22 @@
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="N69" s="1"/>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1" t="s">
@@ -3505,16 +4857,21 @@
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="L70" s="1"/>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1" t="s">
@@ -3524,15 +4881,21 @@
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="1" t="s">
@@ -3542,16 +4905,21 @@
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="L72" s="1"/>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="1" t="s">
@@ -3561,15 +4929,22 @@
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
       <c r="H73" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="N73" s="1"/>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1" t="s">
@@ -3579,15 +4954,22 @@
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="N74" s="1"/>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1" t="s">
@@ -3597,17 +4979,21 @@
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
       <c r="H75" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="J75" s="1"/>
-      <c r="N75" s="1"/>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1" t="s">
@@ -3617,15 +5003,22 @@
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="N76" s="1"/>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C77" s="1"/>
       <c r="D77" s="1" t="s">
@@ -3635,16 +5028,21 @@
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
       <c r="H77" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="L77" s="1"/>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="1" t="s">
@@ -3654,15 +5052,21 @@
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C79" s="1"/>
       <c r="D79" s="1" t="s">
@@ -3672,12 +5076,18 @@
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
       <c r="H79" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>212</v>
@@ -3690,15 +5100,23 @@
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="L80" s="1"/>
+      <c r="N80" s="1"/>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="1" t="s">
@@ -3708,15 +5126,21 @@
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
       <c r="H81" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C82" s="1"/>
       <c r="D82" s="1" t="s">
@@ -3726,16 +5150,22 @@
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
       <c r="H82" s="1" t="s">
-        <v>378</v>
+        <v>348</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>506</v>
       </c>
       <c r="M82" s="1"/>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C83" s="1"/>
       <c r="D83" s="1" t="s">
@@ -3745,15 +5175,21 @@
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
       <c r="H83" s="1" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C84" s="1"/>
       <c r="D84" s="1" t="s">
@@ -3763,13 +5199,18 @@
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
       <c r="H84" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="L84" s="1"/>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>222</v>
@@ -3782,16 +5223,21 @@
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
       <c r="H85" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="L85" s="1"/>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C86" s="1"/>
       <c r="D86" s="1" t="s">
@@ -3801,15 +5247,23 @@
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
       <c r="H86" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="N86" s="1"/>
+      <c r="P86" s="1"/>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C87" s="1"/>
       <c r="D87" s="1" t="s">
@@ -3819,16 +5273,22 @@
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
       <c r="H87" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="L87" s="1"/>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="N87" s="1"/>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C88" s="1"/>
       <c r="D88" s="1" t="s">
@@ -3838,12 +5298,18 @@
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
       <c r="H88" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>230</v>
@@ -3856,15 +5322,21 @@
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C90" s="1"/>
       <c r="D90" s="1" t="s">
@@ -3874,15 +5346,21 @@
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
       <c r="H90" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
         <v>234</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C91" s="1"/>
       <c r="D91" s="1" t="s">
@@ -3892,17 +5370,22 @@
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
       <c r="H91" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="J91" s="1"/>
+        <v>357</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>506</v>
+      </c>
       <c r="L91" s="1"/>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C92" s="1"/>
       <c r="D92" s="1" t="s">
@@ -3912,15 +5395,23 @@
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
       <c r="H92" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="L92" s="1"/>
+      <c r="N92" s="1"/>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C93" s="1"/>
       <c r="D93" s="1" t="s">
@@ -3930,16 +5421,21 @@
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
       <c r="H93" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="K93" s="1"/>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C94" s="1"/>
       <c r="D94" s="1" t="s">
@@ -3949,15 +5445,21 @@
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
       <c r="H94" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C95" s="1"/>
       <c r="D95" s="1" t="s">
@@ -3967,15 +5469,21 @@
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
       <c r="H95" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C96" s="1"/>
       <c r="D96" s="1" t="s">
@@ -3985,15 +5493,21 @@
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
       <c r="H96" s="1" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C97" s="1"/>
       <c r="D97" s="1" t="s">
@@ -4003,17 +5517,22 @@
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
       <c r="H97" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="L97" s="1"/>
+        <v>348</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>704</v>
+      </c>
       <c r="N97" s="1"/>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C98" s="1"/>
       <c r="D98" s="1" t="s">
@@ -4023,16 +5542,21 @@
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
       <c r="H98" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="L98" s="1"/>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C99" s="1"/>
       <c r="D99" s="1" t="s">
@@ -4042,15 +5566,21 @@
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
       <c r="H99" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>252</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C100" s="1"/>
       <c r="D100" s="1" t="s">
@@ -4060,15 +5590,21 @@
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
       <c r="H100" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C101" s="1"/>
       <c r="D101" s="1" t="s">
@@ -4078,17 +5614,21 @@
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
       <c r="H101" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="K101" s="1"/>
-      <c r="L101" s="1"/>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>256</v>
+        <v>437</v>
       </c>
       <c r="C102" s="1"/>
       <c r="D102" s="1" t="s">
@@ -4098,10 +5638,17 @@
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
       <c r="H102" s="1" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I102" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="M102" s="1"/>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>257</v>
       </c>
@@ -4116,11 +5663,17 @@
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
       <c r="H103" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="J103" s="1"/>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I103" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="N103" s="1"/>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>259</v>
       </c>
@@ -4135,12 +5688,18 @@
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
       <c r="H104" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="J104" s="1"/>
-      <c r="L104" s="1"/>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+      <c r="I104" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="M104" s="1"/>
+      <c r="N104" s="1"/>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
         <v>261</v>
       </c>
@@ -4155,10 +5714,16 @@
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
       <c r="H105" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+      <c r="I105" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
         <v>263</v>
       </c>
@@ -4173,10 +5738,17 @@
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
       <c r="H106" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I106" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="M106" s="1"/>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
         <v>265</v>
       </c>
@@ -4191,10 +5763,16 @@
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
       <c r="H107" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I107" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
         <v>267</v>
       </c>
@@ -4209,15 +5787,21 @@
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
       <c r="H108" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I108" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B109" s="1" t="s">
         <v>270</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>271</v>
       </c>
       <c r="C109" s="1"/>
       <c r="D109" s="1" t="s">
@@ -4227,15 +5811,21 @@
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
       <c r="H109" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I109" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C110" s="1"/>
       <c r="D110" s="1" t="s">
@@ -4245,13 +5835,18 @@
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
       <c r="H110" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="L110" s="1"/>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I110" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>274</v>
@@ -4264,10 +5859,16 @@
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
       <c r="H111" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I111" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
         <v>275</v>
       </c>
@@ -4282,10 +5883,16 @@
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
       <c r="H112" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I112" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
         <v>277</v>
       </c>
@@ -4300,10 +5907,16 @@
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
       <c r="H113" s="1" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I113" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
         <v>279</v>
       </c>
@@ -4318,15 +5931,21 @@
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
       <c r="H114" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I114" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
         <v>281</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>474</v>
+        <v>282</v>
       </c>
       <c r="C115" s="1"/>
       <c r="D115" s="1" t="s">
@@ -4336,16 +5955,21 @@
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
       <c r="H115" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="K115" s="1"/>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I115" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="J115" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C116" s="1"/>
       <c r="D116" s="1" t="s">
@@ -4355,16 +5979,21 @@
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
       <c r="H116" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="L116" s="1"/>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+        <v>712</v>
+      </c>
+      <c r="I116" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C117" s="1"/>
       <c r="D117" s="1" t="s">
@@ -4374,17 +6003,21 @@
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
       <c r="H117" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="K117" s="1"/>
-      <c r="L117" s="1"/>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I117" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C118" s="1"/>
       <c r="D118" s="1" t="s">
@@ -4394,15 +6027,21 @@
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
       <c r="H118" s="1" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I118" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="J118" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C119" s="1"/>
       <c r="D119" s="1" t="s">
@@ -4412,16 +6051,21 @@
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
       <c r="H119" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="K119" s="1"/>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I119" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="J119" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C120" s="1"/>
       <c r="D120" s="1" t="s">
@@ -4431,16 +6075,21 @@
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
       <c r="H120" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="K120" s="1"/>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I120" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="J120" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C121" s="1"/>
       <c r="D121" s="1" t="s">
@@ -4450,15 +6099,22 @@
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
       <c r="H121" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+      <c r="I121" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="J121" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="O121" s="1"/>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C122" s="1"/>
       <c r="D122" s="1" t="s">
@@ -4468,15 +6124,21 @@
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
       <c r="H122" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+      <c r="I122" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="J122" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C123" s="1"/>
       <c r="D123" s="1" t="s">
@@ -4486,10 +6148,16 @@
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
       <c r="H123" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+      <c r="I123" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="J123" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
         <v>299</v>
       </c>
@@ -4504,15 +6172,22 @@
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
       <c r="H124" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+      <c r="I124" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="J124" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="L124" s="1"/>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C125" s="1"/>
       <c r="D125" s="1" t="s">
@@ -4522,15 +6197,21 @@
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
       <c r="H125" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+      <c r="I125" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="J125" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C126" s="1"/>
       <c r="D126" s="1" t="s">
@@ -4540,15 +6221,21 @@
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
       <c r="H126" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+      <c r="I126" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="J126" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C127" s="1"/>
       <c r="D127" s="1" t="s">
@@ -4558,15 +6245,21 @@
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
       <c r="H127" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+      <c r="I127" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="J127" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C128" s="1"/>
       <c r="D128" s="1" t="s">
@@ -4576,15 +6269,21 @@
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
       <c r="H128" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+      <c r="I128" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="J128" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A129" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C129" s="1"/>
       <c r="D129" s="1" t="s">
@@ -4594,12 +6293,18 @@
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
       <c r="H129" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+      <c r="I129" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="J129" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>311</v>
@@ -4612,12 +6317,18 @@
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
       <c r="H130" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+      <c r="I130" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="J130" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
-        <v>312</v>
+        <v>616</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>313</v>
@@ -4630,10 +6341,16 @@
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
       <c r="H131" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+      <c r="I131" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="J131" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
         <v>314</v>
       </c>
@@ -4648,10 +6365,16 @@
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
       <c r="H132" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+      <c r="I132" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="J132" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
         <v>316</v>
       </c>
@@ -4666,10 +6389,16 @@
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
       <c r="H133" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+      <c r="I133" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="J133" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
         <v>318</v>
       </c>
@@ -4684,10 +6413,16 @@
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
       <c r="H134" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+      <c r="I134" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="J134" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A135" s="1" t="s">
         <v>320</v>
       </c>
@@ -4702,29 +6437,36 @@
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
       <c r="H135" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+      <c r="I135" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="J135" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
         <v>322</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C136" s="1"/>
       <c r="D136" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E136" s="1"/>
-      <c r="F136" s="1"/>
-      <c r="G136" s="1"/>
       <c r="H136" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="M136" s="1"/>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+      <c r="I136" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="J136" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
         <v>324</v>
       </c>
@@ -4739,10 +6481,16 @@
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
       <c r="H137" s="1" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+      <c r="I137" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="J137" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
         <v>326</v>
       </c>
@@ -4757,10 +6505,16 @@
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
       <c r="H138" s="1" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+      <c r="I138" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="J138" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
         <v>328</v>
       </c>
@@ -4775,16 +6529,21 @@
       <c r="F139" s="1"/>
       <c r="G139" s="1"/>
       <c r="H139" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="J139" s="1"/>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+      <c r="I139" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="J139" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B140" s="1" t="s">
         <v>330</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>331</v>
       </c>
       <c r="C140" s="1"/>
       <c r="D140" s="1" t="s">
@@ -4794,10 +6553,16 @@
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
       <c r="H140" s="1" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+      <c r="I140" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="J140" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A141" s="1" t="s">
         <v>332</v>
       </c>
@@ -4812,10 +6577,16 @@
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
       <c r="H141" s="1" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I141" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="J141" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A142" s="1" t="s">
         <v>334</v>
       </c>
@@ -4830,10 +6601,16 @@
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
       <c r="H142" s="1" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+      <c r="I142" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="J142" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
         <v>336</v>
       </c>
@@ -4848,33 +6625,41 @@
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
       <c r="H143" s="1" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+      <c r="I143" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="J143" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A144" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H144" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="I144" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="J144" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A145" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B144" s="1" t="s">
+      <c r="B145" s="1" t="s">
         <v>339</v>
-      </c>
-      <c r="C144" s="1"/>
-      <c r="D144" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E144" s="1"/>
-      <c r="F144" s="1"/>
-      <c r="G144" s="1"/>
-      <c r="H144" s="1" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A145" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>340</v>
       </c>
       <c r="C145" s="1"/>
       <c r="D145" s="1" t="s">
@@ -4884,15 +6669,21 @@
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
       <c r="H145" s="1" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+      <c r="I145" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="J145" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A146" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C146" s="1"/>
       <c r="D146" s="1" t="s">
@@ -4902,15 +6693,22 @@
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
       <c r="H146" s="1" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+      <c r="I146" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="J146" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="L146" s="1"/>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A147" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C147" s="1"/>
       <c r="D147" s="1" t="s">
@@ -4920,15 +6718,21 @@
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
       <c r="H147" s="1" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+      <c r="I147" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="J147" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A148" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C148" s="1"/>
       <c r="D148" s="1" t="s">
@@ -4938,15 +6742,21 @@
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
       <c r="H148" s="1" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+      <c r="I148" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="J148" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A149" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C149" s="1"/>
       <c r="D149" s="1" t="s">
@@ -4956,101 +6766,121 @@
       <c r="F149" s="1"/>
       <c r="G149" s="1"/>
       <c r="H149" s="1" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I149" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="J149" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A150" s="1" t="s">
-        <v>350</v>
+        <v>429</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="C150" s="1"/>
+        <v>430</v>
+      </c>
       <c r="D150" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E150" s="1"/>
-      <c r="F150" s="1"/>
-      <c r="G150" s="1"/>
       <c r="H150" s="1" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I150" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="J150" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A151" s="1" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>353</v>
+        <v>432</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>22</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I151" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="J151" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A152" s="1" t="s">
-        <v>354</v>
+        <v>433</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="C152" s="1"/>
+        <v>434</v>
+      </c>
       <c r="D152" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E152" s="1"/>
-      <c r="F152" s="1"/>
-      <c r="G152" s="1"/>
       <c r="H152" s="1" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+      <c r="I152" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="J152" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A153" s="1" t="s">
-        <v>356</v>
+        <v>458</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="C153" s="1"/>
+        <v>459</v>
+      </c>
       <c r="D153" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E153" s="1"/>
-      <c r="F153" s="1"/>
-      <c r="G153" s="1"/>
       <c r="H153" s="1" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I153" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="J153" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
-        <v>358</v>
+        <v>435</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="C154" s="1"/>
+        <v>436</v>
+      </c>
       <c r="D154" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E154" s="1"/>
-      <c r="F154" s="1"/>
-      <c r="G154" s="1"/>
       <c r="H154" s="1" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I154" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="J154" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A155" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B155" s="1" t="s">
         <v>361</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>360</v>
       </c>
       <c r="C155" s="1"/>
       <c r="D155" s="1" t="s">
@@ -5060,15 +6890,21 @@
       <c r="F155" s="1"/>
       <c r="G155" s="1"/>
       <c r="H155" s="1" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I155" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="J155" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A156" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="C156" s="1"/>
       <c r="D156" s="1" t="s">
@@ -5078,15 +6914,21 @@
       <c r="F156" s="1"/>
       <c r="G156" s="1"/>
       <c r="H156" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I156" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="J156" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A157" s="1" t="s">
         <v>364</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="C157" s="1"/>
       <c r="D157" s="1" t="s">
@@ -5096,15 +6938,21 @@
       <c r="F157" s="1"/>
       <c r="G157" s="1"/>
       <c r="H157" s="1" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I157" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="J157" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A158" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="C158" s="1"/>
       <c r="D158" s="1" t="s">
@@ -5114,29 +6962,45 @@
       <c r="F158" s="1"/>
       <c r="G158" s="1"/>
       <c r="H158" s="1" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I158" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="J158" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A159" s="1" t="s">
-        <v>513</v>
+        <v>366</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>514</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="C159" s="1"/>
       <c r="D159" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="E159" s="1"/>
+      <c r="F159" s="1"/>
+      <c r="G159" s="1"/>
       <c r="H159" s="1" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I159" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="J159" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A160" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="C160" s="1"/>
       <c r="D160" s="1" t="s">
@@ -5146,15 +7010,21 @@
       <c r="F160" s="1"/>
       <c r="G160" s="1"/>
       <c r="H160" s="1" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I160" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="J160" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="C161" s="1"/>
       <c r="D161" s="1" t="s">
@@ -5164,16 +7034,21 @@
       <c r="F161" s="1"/>
       <c r="G161" s="1"/>
       <c r="H161" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="J161" s="1"/>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I161" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="J161" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="C162" s="1"/>
       <c r="D162" s="1" t="s">
@@ -5183,15 +7058,21 @@
       <c r="F162" s="1"/>
       <c r="G162" s="1"/>
       <c r="H162" s="1" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I162" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="J162" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="C163" s="1"/>
       <c r="D163" s="1" t="s">
@@ -5201,15 +7082,21 @@
       <c r="F163" s="1"/>
       <c r="G163" s="1"/>
       <c r="H163" s="1" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I163" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="J163" s="1" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A164" s="1" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="C164" s="1"/>
       <c r="D164" s="1" t="s">
@@ -5219,85 +7106,141 @@
       <c r="F164" s="1"/>
       <c r="G164" s="1"/>
       <c r="H164" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="165" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I164" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="J164" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A165" s="1" t="s">
-        <v>466</v>
+        <v>372</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>467</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="C165" s="1"/>
       <c r="D165" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="E165" s="1"/>
+      <c r="F165" s="1"/>
+      <c r="G165" s="1"/>
       <c r="H165" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="166" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I165" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="J165" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A166" s="1" t="s">
-        <v>468</v>
+        <v>373</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>469</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="C166" s="1"/>
       <c r="D166" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="E166" s="1"/>
+      <c r="F166" s="1"/>
+      <c r="G166" s="1"/>
       <c r="H166" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="167" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I166" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="J166" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
-        <v>470</v>
+        <v>374</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>471</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="C167" s="1"/>
       <c r="D167" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="E167" s="1"/>
+      <c r="F167" s="1"/>
+      <c r="G167" s="1"/>
       <c r="H167" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="168" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I167" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="J167" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A168" s="1" t="s">
-        <v>495</v>
+        <v>375</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>496</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="C168" s="1"/>
       <c r="D168" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="E168" s="1"/>
+      <c r="F168" s="1"/>
+      <c r="G168" s="1"/>
       <c r="H168" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="169" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I168" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="J168" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A169" s="1" t="s">
-        <v>472</v>
+        <v>389</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>473</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="C169" s="1"/>
       <c r="D169" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="E169" s="1"/>
+      <c r="F169" s="1"/>
+      <c r="G169" s="1"/>
       <c r="H169" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I169" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="J169" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A170" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B170" s="1" t="s">
         <v>393</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>392</v>
       </c>
       <c r="C170" s="1"/>
       <c r="D170" s="1" t="s">
@@ -5307,15 +7250,21 @@
       <c r="F170" s="1"/>
       <c r="G170" s="1"/>
       <c r="H170" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I170" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="J170" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A171" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B171" s="1" t="s">
         <v>394</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>407</v>
       </c>
       <c r="C171" s="1"/>
       <c r="D171" s="1" t="s">
@@ -5325,15 +7274,21 @@
       <c r="F171" s="1"/>
       <c r="G171" s="1"/>
       <c r="H171" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I171" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="J171" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A172" s="1" t="s">
         <v>395</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="C172" s="1"/>
       <c r="D172" s="1" t="s">
@@ -5343,15 +7298,21 @@
       <c r="F172" s="1"/>
       <c r="G172" s="1"/>
       <c r="H172" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I172" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="J172" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A173" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="C173" s="1"/>
       <c r="D173" s="1" t="s">
@@ -5361,12 +7322,18 @@
       <c r="F173" s="1"/>
       <c r="G173" s="1"/>
       <c r="H173" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I173" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="J173" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A174" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>410</v>
@@ -5379,12 +7346,18 @@
       <c r="F174" s="1"/>
       <c r="G174" s="1"/>
       <c r="H174" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I174" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="J174" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A175" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>411</v>
@@ -5397,12 +7370,18 @@
       <c r="F175" s="1"/>
       <c r="G175" s="1"/>
       <c r="H175" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I175" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="J175" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A176" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>412</v>
@@ -5415,12 +7394,18 @@
       <c r="F176" s="1"/>
       <c r="G176" s="1"/>
       <c r="H176" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I176" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="J176" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A177" s="1" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>413</v>
@@ -5433,12 +7418,18 @@
       <c r="F177" s="1"/>
       <c r="G177" s="1"/>
       <c r="H177" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I177" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="J177" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A178" s="1" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>414</v>
@@ -5451,12 +7442,18 @@
       <c r="F178" s="1"/>
       <c r="G178" s="1"/>
       <c r="H178" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I178" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="J178" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A179" s="1" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>415</v>
@@ -5469,12 +7466,18 @@
       <c r="F179" s="1"/>
       <c r="G179" s="1"/>
       <c r="H179" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I179" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="J179" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A180" s="1" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>416</v>
@@ -5487,12 +7490,18 @@
       <c r="F180" s="1"/>
       <c r="G180" s="1"/>
       <c r="H180" s="1" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I180" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="J180" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A181" s="1" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>417</v>
@@ -5505,12 +7514,18 @@
       <c r="F181" s="1"/>
       <c r="G181" s="1"/>
       <c r="H181" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I181" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="J181" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A182" s="1" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>418</v>
@@ -5523,12 +7538,18 @@
       <c r="F182" s="1"/>
       <c r="G182" s="1"/>
       <c r="H182" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I182" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="J182" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A183" s="1" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>419</v>
@@ -5541,15 +7562,21 @@
       <c r="F183" s="1"/>
       <c r="G183" s="1"/>
       <c r="H183" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I183" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="J183" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A184" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B184" s="1" t="s">
         <v>420</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>423</v>
       </c>
       <c r="C184" s="1"/>
       <c r="D184" s="1" t="s">
@@ -5559,15 +7586,21 @@
       <c r="F184" s="1"/>
       <c r="G184" s="1"/>
       <c r="H184" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+      <c r="I184" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="J184" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A185" s="1" t="s">
         <v>421</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C185" s="1"/>
       <c r="D185" s="1" t="s">
@@ -5577,15 +7610,21 @@
       <c r="F185" s="1"/>
       <c r="G185" s="1"/>
       <c r="H185" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+      <c r="I185" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="J185" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A186" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C186" s="1"/>
       <c r="D186" s="1" t="s">
@@ -5595,15 +7634,21 @@
       <c r="F186" s="1"/>
       <c r="G186" s="1"/>
       <c r="H186" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I186" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="J186" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A187" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B187" s="1" t="s">
         <v>426</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>427</v>
       </c>
       <c r="C187" s="1"/>
       <c r="D187" s="1" t="s">
@@ -5613,15 +7658,21 @@
       <c r="F187" s="1"/>
       <c r="G187" s="1"/>
       <c r="H187" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I187" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="J187" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A188" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B188" s="1" t="s">
         <v>428</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>429</v>
       </c>
       <c r="C188" s="1"/>
       <c r="D188" s="1" t="s">
@@ -5631,15 +7682,18 @@
       <c r="F188" s="1"/>
       <c r="G188" s="1"/>
       <c r="H188" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="J188" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A189" s="1" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="C189" s="1"/>
       <c r="D189" s="1" t="s">
@@ -5649,15 +7703,21 @@
       <c r="F189" s="1"/>
       <c r="G189" s="1"/>
       <c r="H189" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I189" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="J189" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A190" s="1" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C190" s="1"/>
       <c r="D190" s="1" t="s">
@@ -5667,15 +7727,21 @@
       <c r="F190" s="1"/>
       <c r="G190" s="1"/>
       <c r="H190" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I190" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="J190" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A191" s="1" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C191" s="1"/>
       <c r="D191" s="1" t="s">
@@ -5685,15 +7751,21 @@
       <c r="F191" s="1"/>
       <c r="G191" s="1"/>
       <c r="H191" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I191" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="J191" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A192" s="1" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C192" s="1"/>
       <c r="D192" s="1" t="s">
@@ -5703,15 +7775,21 @@
       <c r="F192" s="1"/>
       <c r="G192" s="1"/>
       <c r="H192" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I192" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="J192" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A193" s="1" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C193" s="1"/>
       <c r="D193" s="1" t="s">
@@ -5721,12 +7799,18 @@
       <c r="F193" s="1"/>
       <c r="G193" s="1"/>
       <c r="H193" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I193" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="J193" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A194" s="1" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>449</v>
@@ -5739,15 +7823,21 @@
       <c r="F194" s="1"/>
       <c r="G194" s="1"/>
       <c r="H194" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I194" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="J194" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A195" s="1" t="s">
-        <v>437</v>
+        <v>450</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C195" s="1"/>
       <c r="D195" s="1" t="s">
@@ -5757,15 +7847,21 @@
       <c r="F195" s="1"/>
       <c r="G195" s="1"/>
       <c r="H195" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I195" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="J195" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A196" s="1" t="s">
-        <v>438</v>
+        <v>452</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C196" s="1"/>
       <c r="D196" s="1" t="s">
@@ -5775,15 +7871,21 @@
       <c r="F196" s="1"/>
       <c r="G196" s="1"/>
       <c r="H196" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I196" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="J196" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A197" s="1" t="s">
-        <v>439</v>
+        <v>454</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="C197" s="1"/>
       <c r="D197" s="1" t="s">
@@ -5793,15 +7895,21 @@
       <c r="F197" s="1"/>
       <c r="G197" s="1"/>
       <c r="H197" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I197" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="J197" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A198" s="1" t="s">
-        <v>440</v>
+        <v>456</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="C198" s="1"/>
       <c r="D198" s="1" t="s">
@@ -5811,15 +7919,21 @@
       <c r="F198" s="1"/>
       <c r="G198" s="1"/>
       <c r="H198" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I198" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="J198" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A199" s="1" t="s">
-        <v>441</v>
+        <v>460</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="C199" s="1"/>
       <c r="D199" s="1" t="s">
@@ -5829,15 +7943,21 @@
       <c r="F199" s="1"/>
       <c r="G199" s="1"/>
       <c r="H199" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I199" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="J199" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A200" s="1" t="s">
-        <v>442</v>
+        <v>462</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="C200" s="1"/>
       <c r="D200" s="1" t="s">
@@ -5847,15 +7967,21 @@
       <c r="F200" s="1"/>
       <c r="G200" s="1"/>
       <c r="H200" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+      <c r="I200" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="J200" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A201" s="1" t="s">
-        <v>443</v>
+        <v>463</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="C201" s="1"/>
       <c r="D201" s="1" t="s">
@@ -5865,15 +7991,21 @@
       <c r="F201" s="1"/>
       <c r="G201" s="1"/>
       <c r="H201" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+      <c r="I201" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="J201" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A202" s="1" t="s">
-        <v>444</v>
+        <v>464</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="C202" s="1"/>
       <c r="D202" s="1" t="s">
@@ -5883,15 +8015,21 @@
       <c r="F202" s="1"/>
       <c r="G202" s="1"/>
       <c r="H202" s="1" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+      <c r="I202" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="J202" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A203" s="1" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>459</v>
+        <v>472</v>
       </c>
       <c r="C203" s="1"/>
       <c r="D203" s="1" t="s">
@@ -5901,15 +8039,21 @@
       <c r="F203" s="1"/>
       <c r="G203" s="1"/>
       <c r="H203" s="1" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+      <c r="I203" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="J203" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A204" s="1" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
       <c r="C204" s="1"/>
       <c r="D204" s="1" t="s">
@@ -5919,15 +8063,21 @@
       <c r="F204" s="1"/>
       <c r="G204" s="1"/>
       <c r="H204" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I204" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="J204" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A205" s="1" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="C205" s="1"/>
       <c r="D205" s="1" t="s">
@@ -5937,15 +8087,21 @@
       <c r="F205" s="1"/>
       <c r="G205" s="1"/>
       <c r="H205" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+      <c r="I205" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="J205" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A206" s="1" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="C206" s="1"/>
       <c r="D206" s="1" t="s">
@@ -5955,15 +8111,21 @@
       <c r="F206" s="1"/>
       <c r="G206" s="1"/>
       <c r="H206" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+      <c r="I206" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="J206" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A207" s="1" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="C207" s="1"/>
       <c r="D207" s="1" t="s">
@@ -5973,15 +8135,21 @@
       <c r="F207" s="1"/>
       <c r="G207" s="1"/>
       <c r="H207" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+      <c r="I207" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="J207" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A208" s="1" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="C208" s="1"/>
       <c r="D208" s="1" t="s">
@@ -5991,15 +8159,21 @@
       <c r="F208" s="1"/>
       <c r="G208" s="1"/>
       <c r="H208" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I208" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="J208" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="209" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A209" s="1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="C209" s="1"/>
       <c r="D209" s="1" t="s">
@@ -6009,15 +8183,21 @@
       <c r="F209" s="1"/>
       <c r="G209" s="1"/>
       <c r="H209" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+        <v>484</v>
+      </c>
+      <c r="I209" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="J209" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="210" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A210" s="1" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="C210" s="1"/>
       <c r="D210" s="1" t="s">
@@ -6027,15 +8207,22 @@
       <c r="F210" s="1"/>
       <c r="G210" s="1"/>
       <c r="H210" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+        <v>484</v>
+      </c>
+      <c r="I210" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="J210" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="P210" s="1"/>
+    </row>
+    <row r="211" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A211" s="1" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="C211" s="1"/>
       <c r="D211" s="1" t="s">
@@ -6045,15 +8232,21 @@
       <c r="F211" s="1"/>
       <c r="G211" s="1"/>
       <c r="H211" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I211" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="J211" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="212" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A212" s="1" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="C212" s="1"/>
       <c r="D212" s="1" t="s">
@@ -6063,15 +8256,21 @@
       <c r="F212" s="1"/>
       <c r="G212" s="1"/>
       <c r="H212" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I212" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="J212" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="213" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A213" s="1" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="C213" s="1"/>
       <c r="D213" s="1" t="s">
@@ -6081,15 +8280,21 @@
       <c r="F213" s="1"/>
       <c r="G213" s="1"/>
       <c r="H213" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I213" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="J213" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="214" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A214" s="1" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="C214" s="1"/>
       <c r="D214" s="1" t="s">
@@ -6099,15 +8304,21 @@
       <c r="F214" s="1"/>
       <c r="G214" s="1"/>
       <c r="H214" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I214" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="J214" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="215" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A215" s="1" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="C215" s="1"/>
       <c r="D215" s="1" t="s">
@@ -6117,15 +8328,21 @@
       <c r="F215" s="1"/>
       <c r="G215" s="1"/>
       <c r="H215" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+      <c r="I215" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="J215" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="216" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A216" s="1" t="s">
-        <v>493</v>
+        <v>554</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>494</v>
+        <v>553</v>
       </c>
       <c r="C216" s="1"/>
       <c r="D216" s="1" t="s">
@@ -6135,15 +8352,22 @@
       <c r="F216" s="1"/>
       <c r="G216" s="1"/>
       <c r="H216" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I216" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="J216" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="L216" s="1"/>
+    </row>
+    <row r="217" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A217" s="1" t="s">
-        <v>497</v>
+        <v>555</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>498</v>
+        <v>556</v>
       </c>
       <c r="C217" s="1"/>
       <c r="D217" s="1" t="s">
@@ -6153,35 +8377,42 @@
       <c r="F217" s="1"/>
       <c r="G217" s="1"/>
       <c r="H217" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I217" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="J217" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="218" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A218" s="1" t="s">
-        <v>499</v>
+        <v>702</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="C218" s="1"/>
+        <v>136</v>
+      </c>
       <c r="D218" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E218" s="1"/>
-      <c r="F218" s="1"/>
-      <c r="G218" s="1"/>
       <c r="H218" s="1" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A219" s="1" t="s">
-        <v>500</v>
+        <v>349</v>
+      </c>
+      <c r="I218" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="J218" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="219" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A219" t="s">
+        <v>720</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="C219" s="1"/>
+        <v>722</v>
+      </c>
       <c r="D219" s="1" t="s">
         <v>22</v>
       </c>
@@ -6189,15 +8420,21 @@
       <c r="F219" s="1"/>
       <c r="G219" s="1"/>
       <c r="H219" s="1" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+      <c r="I219" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="J219" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="220" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A220" s="1" t="s">
-        <v>501</v>
+        <v>724</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>504</v>
+        <v>723</v>
       </c>
       <c r="C220" s="1"/>
       <c r="D220" s="1" t="s">
@@ -6207,15 +8444,21 @@
       <c r="F220" s="1"/>
       <c r="G220" s="1"/>
       <c r="H220" s="1" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I220" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="J220" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="221" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A221" s="1" t="s">
-        <v>505</v>
+        <v>728</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>509</v>
+        <v>730</v>
       </c>
       <c r="C221" s="1"/>
       <c r="D221" s="1" t="s">
@@ -6225,15 +8468,21 @@
       <c r="F221" s="1"/>
       <c r="G221" s="1"/>
       <c r="H221" s="1" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="I221" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="J221" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="222" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A222" s="1" t="s">
-        <v>506</v>
+        <v>731</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>510</v>
+        <v>732</v>
       </c>
       <c r="C222" s="1"/>
       <c r="D222" s="1" t="s">
@@ -6243,227 +8492,112 @@
       <c r="F222" s="1"/>
       <c r="G222" s="1"/>
       <c r="H222" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A223" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="B223" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="C223" s="1"/>
-      <c r="D223" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E223" s="1"/>
-      <c r="F223" s="1"/>
-      <c r="G223" s="1"/>
-      <c r="H223" s="1" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A224" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="B224" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="C224" s="1"/>
-      <c r="D224" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E224" s="1"/>
-      <c r="F224" s="1"/>
-      <c r="G224" s="1"/>
-      <c r="H224" s="1" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A225" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="B225" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="C225" s="1"/>
-      <c r="D225" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E225" s="1"/>
-      <c r="F225" s="1"/>
-      <c r="G225" s="1"/>
-      <c r="H225" s="1" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A226" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="B226" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="C226" s="1"/>
-      <c r="D226" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E226" s="1"/>
-      <c r="F226" s="1"/>
-      <c r="G226" s="1"/>
-      <c r="H226" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A227" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="B227" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="C227" s="1"/>
-      <c r="D227" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E227" s="1"/>
-      <c r="F227" s="1"/>
-      <c r="G227" s="1"/>
-      <c r="H227" s="1" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A228" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="B228" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="C228" s="1"/>
-      <c r="D228" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E228" s="1"/>
-      <c r="F228" s="1"/>
-      <c r="G228" s="1"/>
-      <c r="H228" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="N228" s="1"/>
-    </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A229" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="B229" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="C229" s="1"/>
-      <c r="D229" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E229" s="1"/>
-      <c r="F229" s="1"/>
-      <c r="G229" s="1"/>
-      <c r="H229" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A230" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="B230" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="C230" s="1"/>
-      <c r="D230" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E230" s="1"/>
-      <c r="F230" s="1"/>
-      <c r="G230" s="1"/>
-      <c r="H230" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A231" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="B231" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="C231" s="1"/>
-      <c r="D231" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E231" s="1"/>
-      <c r="F231" s="1"/>
-      <c r="G231" s="1"/>
-      <c r="H231" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A232" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="B232" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="C232" s="1"/>
-      <c r="D232" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E232" s="1"/>
-      <c r="F232" s="1"/>
-      <c r="G232" s="1"/>
-      <c r="H232" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A233" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="B233" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="C233" s="1"/>
-      <c r="D233" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E233" s="1"/>
-      <c r="F233" s="1"/>
-      <c r="G233" s="1"/>
-      <c r="H233" s="1" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="J234" s="1"/>
+        <v>734</v>
+      </c>
+      <c r="I222" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="J222" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="225" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K225" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B234:B1048576 B2:B17">
-    <cfRule type="duplicateValues" dxfId="4" priority="8"/>
+  <conditionalFormatting sqref="B223:B1048576 B1:B17">
+    <cfRule type="duplicateValues" dxfId="38" priority="42"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A234:A1048576 A2:A17">
-    <cfRule type="duplicateValues" dxfId="3" priority="7"/>
+  <conditionalFormatting sqref="A219 A1:A17 A223:A1048576">
+    <cfRule type="duplicateValues" dxfId="37" priority="41"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B18:B232">
-    <cfRule type="duplicateValues" dxfId="2" priority="18"/>
+  <conditionalFormatting sqref="B215">
+    <cfRule type="duplicateValues" dxfId="36" priority="35"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A18:A233">
-    <cfRule type="duplicateValues" dxfId="1" priority="20"/>
+  <conditionalFormatting sqref="B223:B1048576 B1:B215">
+    <cfRule type="duplicateValues" dxfId="35" priority="34"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B233">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="A219 A1:A215 A223:A1048576">
+    <cfRule type="duplicateValues" dxfId="34" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="33"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A216:A217">
+    <cfRule type="duplicateValues" dxfId="31" priority="30"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B216:B217">
+    <cfRule type="duplicateValues" dxfId="30" priority="29"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B216:B217">
+    <cfRule type="duplicateValues" dxfId="29" priority="28"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A216:A217">
+    <cfRule type="duplicateValues" dxfId="28" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="27"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B218:B219">
+    <cfRule type="duplicateValues" dxfId="25" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A218">
+    <cfRule type="duplicateValues" dxfId="24" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="21"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B218:B219">
+    <cfRule type="duplicateValues" dxfId="21" priority="23"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A218">
+    <cfRule type="duplicateValues" dxfId="20" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B220">
+    <cfRule type="duplicateValues" dxfId="19" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A220">
+    <cfRule type="duplicateValues" dxfId="18" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B220">
+    <cfRule type="duplicateValues" dxfId="17" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A220">
+    <cfRule type="duplicateValues" dxfId="16" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A221">
+    <cfRule type="duplicateValues" dxfId="13" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A221">
+    <cfRule type="duplicateValues" dxfId="12" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B221">
+    <cfRule type="duplicateValues" dxfId="9" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B221">
+    <cfRule type="duplicateValues" dxfId="8" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B222">
+    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A222">
+    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B222">
+    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A222">
+    <cfRule type="duplicateValues" dxfId="2" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18:B214">
+    <cfRule type="duplicateValues" dxfId="1" priority="321"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18:A215">
+    <cfRule type="duplicateValues" dxfId="0" priority="323"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
